--- a/resourses/testdata/excel_file/Booking_Testdata_Excel_POC.xlsx
+++ b/resourses/testdata/excel_file/Booking_Testdata_Excel_POC.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home-Few\Documents\GitHub\all-speedy-automated\resourses\testdata\excel_file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB26B1E-1AC5-43C3-B608-3614FA8B9B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="14420" yWindow="8490" windowWidth="19200" windowHeight="10310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Input" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="booking_detail_page" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="booking_delivery_page" sheetId="3" r:id="rId6"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="booking_detail_page" sheetId="2" r:id="rId2"/>
+    <sheet name="booking_delivery_page" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="117">
   <si>
     <t>Variable</t>
   </si>
@@ -363,31 +372,34 @@
   <si>
     <t>50</t>
   </si>
+  <si>
+    <t>scenario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -397,7 +409,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -419,7 +431,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -433,68 +451,64 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -684,39 +698,42 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AW1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E4" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.88"/>
-    <col customWidth="1" min="2" max="5" width="15.38"/>
-    <col customWidth="1" min="6" max="6" width="23.88"/>
-    <col customWidth="1" min="7" max="7" width="21.5"/>
-    <col customWidth="1" min="8" max="10" width="15.38"/>
-    <col customWidth="1" min="11" max="12" width="23.38"/>
-    <col customWidth="1" min="13" max="13" width="27.13"/>
-    <col customWidth="1" min="14" max="14" width="21.38"/>
-    <col customWidth="1" min="15" max="15" width="21.13"/>
-    <col customWidth="1" min="16" max="18" width="15.38"/>
-    <col customWidth="1" min="22" max="25" width="15.38"/>
-    <col customWidth="1" min="34" max="34" width="13.25"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="2" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" customWidth="1"/>
+    <col min="7" max="7" width="21.453125" customWidth="1"/>
+    <col min="8" max="10" width="15.36328125" customWidth="1"/>
+    <col min="11" max="12" width="23.36328125" customWidth="1"/>
+    <col min="13" max="13" width="27.08984375" customWidth="1"/>
+    <col min="14" max="14" width="21.36328125" customWidth="1"/>
+    <col min="15" max="15" width="21.08984375" customWidth="1"/>
+    <col min="16" max="18" width="15.36328125" customWidth="1"/>
+    <col min="22" max="25" width="15.36328125" customWidth="1"/>
+    <col min="34" max="34" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:49" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -849,7 +866,7 @@
       <c r="AV1" s="3"/>
       <c r="AW1" s="3"/>
     </row>
-    <row r="2" ht="51.0" customHeight="1">
+    <row r="2" spans="1:49" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
@@ -948,7 +965,7 @@
       <c r="AV2" s="6"/>
       <c r="AW2" s="6"/>
     </row>
-    <row r="3" ht="51.0" customHeight="1">
+    <row r="3" spans="1:49" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -1083,7 +1100,7 @@
       <c r="AV3" s="6"/>
       <c r="AW3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:49" ht="78" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>101</v>
       </c>
@@ -1218,7 +1235,7 @@
       <c r="AV4" s="9"/>
       <c r="AW4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:49" ht="26" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>112</v>
       </c>
@@ -1353,7 +1370,7 @@
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1379,7 +1396,7 @@
       <c r="AV6" s="10"/>
       <c r="AW6" s="10"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1405,7 +1422,7 @@
       <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1431,7 +1448,7 @@
       <c r="AV8" s="10"/>
       <c r="AW8" s="10"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1457,7 +1474,7 @@
       <c r="AV9" s="10"/>
       <c r="AW9" s="10"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1483,7 +1500,7 @@
       <c r="AV10" s="10"/>
       <c r="AW10" s="10"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1509,7 +1526,7 @@
       <c r="AV11" s="10"/>
       <c r="AW11" s="10"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1535,7 +1552,7 @@
       <c r="AV12" s="10"/>
       <c r="AW12" s="10"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1561,7 +1578,7 @@
       <c r="AV13" s="10"/>
       <c r="AW13" s="10"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1587,7 +1604,7 @@
       <c r="AV14" s="10"/>
       <c r="AW14" s="10"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1613,7 +1630,7 @@
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1639,7 +1656,7 @@
       <c r="AV16" s="10"/>
       <c r="AW16" s="10"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1665,7 +1682,7 @@
       <c r="AV17" s="10"/>
       <c r="AW17" s="10"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1691,7 +1708,7 @@
       <c r="AV18" s="10"/>
       <c r="AW18" s="10"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1717,7 +1734,7 @@
       <c r="AV19" s="10"/>
       <c r="AW19" s="10"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1743,7 +1760,7 @@
       <c r="AV20" s="10"/>
       <c r="AW20" s="10"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1769,7 +1786,7 @@
       <c r="AV21" s="10"/>
       <c r="AW21" s="10"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1795,7 +1812,7 @@
       <c r="AV22" s="10"/>
       <c r="AW22" s="10"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1821,7 +1838,7 @@
       <c r="AV23" s="10"/>
       <c r="AW23" s="10"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1847,7 +1864,7 @@
       <c r="AV24" s="10"/>
       <c r="AW24" s="10"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1873,7 +1890,7 @@
       <c r="AV25" s="10"/>
       <c r="AW25" s="10"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1899,7 +1916,7 @@
       <c r="AV26" s="10"/>
       <c r="AW26" s="10"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1925,7 +1942,7 @@
       <c r="AV27" s="10"/>
       <c r="AW27" s="10"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1951,7 +1968,7 @@
       <c r="AV28" s="10"/>
       <c r="AW28" s="10"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1977,7 +1994,7 @@
       <c r="AV29" s="10"/>
       <c r="AW29" s="10"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2003,7 +2020,7 @@
       <c r="AV30" s="10"/>
       <c r="AW30" s="10"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2029,7 +2046,7 @@
       <c r="AV31" s="10"/>
       <c r="AW31" s="10"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2055,7 +2072,7 @@
       <c r="AV32" s="10"/>
       <c r="AW32" s="10"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2081,7 +2098,7 @@
       <c r="AV33" s="10"/>
       <c r="AW33" s="10"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2107,7 +2124,7 @@
       <c r="AV34" s="10"/>
       <c r="AW34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -2133,7 +2150,7 @@
       <c r="AV35" s="10"/>
       <c r="AW35" s="10"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2159,7 +2176,7 @@
       <c r="AV36" s="10"/>
       <c r="AW36" s="10"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2185,7 +2202,7 @@
       <c r="AV37" s="10"/>
       <c r="AW37" s="10"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2211,7 +2228,7 @@
       <c r="AV38" s="10"/>
       <c r="AW38" s="10"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2237,7 +2254,7 @@
       <c r="AV39" s="10"/>
       <c r="AW39" s="10"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2263,7 +2280,7 @@
       <c r="AV40" s="10"/>
       <c r="AW40" s="10"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2289,7 +2306,7 @@
       <c r="AV41" s="10"/>
       <c r="AW41" s="10"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -2315,7 +2332,7 @@
       <c r="AV42" s="10"/>
       <c r="AW42" s="10"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -2341,7 +2358,7 @@
       <c r="AV43" s="10"/>
       <c r="AW43" s="10"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -2367,7 +2384,7 @@
       <c r="AV44" s="10"/>
       <c r="AW44" s="10"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
@@ -2393,7 +2410,7 @@
       <c r="AV45" s="10"/>
       <c r="AW45" s="10"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
@@ -2419,7 +2436,7 @@
       <c r="AV46" s="10"/>
       <c r="AW46" s="10"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
@@ -2445,7 +2462,7 @@
       <c r="AV47" s="10"/>
       <c r="AW47" s="10"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
@@ -2471,7 +2488,7 @@
       <c r="AV48" s="10"/>
       <c r="AW48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
@@ -2497,7 +2514,7 @@
       <c r="AV49" s="10"/>
       <c r="AW49" s="10"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
@@ -2523,7 +2540,7 @@
       <c r="AV50" s="10"/>
       <c r="AW50" s="10"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
@@ -2549,7 +2566,7 @@
       <c r="AV51" s="10"/>
       <c r="AW51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
@@ -2575,7 +2592,7 @@
       <c r="AV52" s="10"/>
       <c r="AW52" s="10"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
@@ -2601,7 +2618,7 @@
       <c r="AV53" s="10"/>
       <c r="AW53" s="10"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
@@ -2627,7 +2644,7 @@
       <c r="AV54" s="10"/>
       <c r="AW54" s="10"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
@@ -2653,7 +2670,7 @@
       <c r="AV55" s="10"/>
       <c r="AW55" s="10"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
@@ -2679,7 +2696,7 @@
       <c r="AV56" s="10"/>
       <c r="AW56" s="10"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
@@ -2705,7 +2722,7 @@
       <c r="AV57" s="10"/>
       <c r="AW57" s="10"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
@@ -2731,7 +2748,7 @@
       <c r="AV58" s="10"/>
       <c r="AW58" s="10"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
@@ -2757,7 +2774,7 @@
       <c r="AV59" s="10"/>
       <c r="AW59" s="10"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
@@ -2783,7 +2800,7 @@
       <c r="AV60" s="10"/>
       <c r="AW60" s="10"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
@@ -2809,7 +2826,7 @@
       <c r="AV61" s="10"/>
       <c r="AW61" s="10"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
@@ -2835,7 +2852,7 @@
       <c r="AV62" s="10"/>
       <c r="AW62" s="10"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
@@ -2861,7 +2878,7 @@
       <c r="AV63" s="10"/>
       <c r="AW63" s="10"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
@@ -2887,7 +2904,7 @@
       <c r="AV64" s="10"/>
       <c r="AW64" s="10"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
@@ -2913,7 +2930,7 @@
       <c r="AV65" s="10"/>
       <c r="AW65" s="10"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
@@ -2939,7 +2956,7 @@
       <c r="AV66" s="10"/>
       <c r="AW66" s="10"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
@@ -2965,7 +2982,7 @@
       <c r="AV67" s="10"/>
       <c r="AW67" s="10"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
@@ -2991,7 +3008,7 @@
       <c r="AV68" s="10"/>
       <c r="AW68" s="10"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
@@ -3017,7 +3034,7 @@
       <c r="AV69" s="10"/>
       <c r="AW69" s="10"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
@@ -3043,7 +3060,7 @@
       <c r="AV70" s="10"/>
       <c r="AW70" s="10"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
@@ -3069,7 +3086,7 @@
       <c r="AV71" s="10"/>
       <c r="AW71" s="10"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
@@ -3095,7 +3112,7 @@
       <c r="AV72" s="10"/>
       <c r="AW72" s="10"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
@@ -3121,7 +3138,7 @@
       <c r="AV73" s="10"/>
       <c r="AW73" s="10"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
@@ -3147,7 +3164,7 @@
       <c r="AV74" s="10"/>
       <c r="AW74" s="10"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
@@ -3173,7 +3190,7 @@
       <c r="AV75" s="10"/>
       <c r="AW75" s="10"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
@@ -3199,7 +3216,7 @@
       <c r="AV76" s="10"/>
       <c r="AW76" s="10"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
@@ -3225,7 +3242,7 @@
       <c r="AV77" s="10"/>
       <c r="AW77" s="10"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
@@ -3251,7 +3268,7 @@
       <c r="AV78" s="10"/>
       <c r="AW78" s="10"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
@@ -3277,7 +3294,7 @@
       <c r="AV79" s="10"/>
       <c r="AW79" s="10"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
@@ -3303,7 +3320,7 @@
       <c r="AV80" s="10"/>
       <c r="AW80" s="10"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
@@ -3329,7 +3346,7 @@
       <c r="AV81" s="10"/>
       <c r="AW81" s="10"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
@@ -3355,7 +3372,7 @@
       <c r="AV82" s="10"/>
       <c r="AW82" s="10"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
@@ -3381,7 +3398,7 @@
       <c r="AV83" s="10"/>
       <c r="AW83" s="10"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
@@ -3407,7 +3424,7 @@
       <c r="AV84" s="10"/>
       <c r="AW84" s="10"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
@@ -3433,7 +3450,7 @@
       <c r="AV85" s="10"/>
       <c r="AW85" s="10"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
@@ -3459,7 +3476,7 @@
       <c r="AV86" s="10"/>
       <c r="AW86" s="10"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
@@ -3485,7 +3502,7 @@
       <c r="AV87" s="10"/>
       <c r="AW87" s="10"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
@@ -3511,7 +3528,7 @@
       <c r="AV88" s="10"/>
       <c r="AW88" s="10"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
@@ -3537,7 +3554,7 @@
       <c r="AV89" s="10"/>
       <c r="AW89" s="10"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
@@ -3563,7 +3580,7 @@
       <c r="AV90" s="10"/>
       <c r="AW90" s="10"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
@@ -3589,7 +3606,7 @@
       <c r="AV91" s="10"/>
       <c r="AW91" s="10"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
@@ -3615,7 +3632,7 @@
       <c r="AV92" s="10"/>
       <c r="AW92" s="10"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
@@ -3641,7 +3658,7 @@
       <c r="AV93" s="10"/>
       <c r="AW93" s="10"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
@@ -3667,7 +3684,7 @@
       <c r="AV94" s="10"/>
       <c r="AW94" s="10"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
@@ -3693,7 +3710,7 @@
       <c r="AV95" s="10"/>
       <c r="AW95" s="10"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
@@ -3719,7 +3736,7 @@
       <c r="AV96" s="10"/>
       <c r="AW96" s="10"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
@@ -3745,7 +3762,7 @@
       <c r="AV97" s="10"/>
       <c r="AW97" s="10"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
@@ -3771,7 +3788,7 @@
       <c r="AV98" s="10"/>
       <c r="AW98" s="10"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
@@ -3797,7 +3814,7 @@
       <c r="AV99" s="10"/>
       <c r="AW99" s="10"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
@@ -3823,7 +3840,7 @@
       <c r="AV100" s="10"/>
       <c r="AW100" s="10"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
@@ -3849,7 +3866,7 @@
       <c r="AV101" s="10"/>
       <c r="AW101" s="10"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
@@ -3875,7 +3892,7 @@
       <c r="AV102" s="10"/>
       <c r="AW102" s="10"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
@@ -3901,7 +3918,7 @@
       <c r="AV103" s="10"/>
       <c r="AW103" s="10"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
@@ -3927,7 +3944,7 @@
       <c r="AV104" s="10"/>
       <c r="AW104" s="10"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
@@ -3953,7 +3970,7 @@
       <c r="AV105" s="10"/>
       <c r="AW105" s="10"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
@@ -3979,7 +3996,7 @@
       <c r="AV106" s="10"/>
       <c r="AW106" s="10"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
@@ -4005,7 +4022,7 @@
       <c r="AV107" s="10"/>
       <c r="AW107" s="10"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
@@ -4031,7 +4048,7 @@
       <c r="AV108" s="10"/>
       <c r="AW108" s="10"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
@@ -4057,7 +4074,7 @@
       <c r="AV109" s="10"/>
       <c r="AW109" s="10"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
@@ -4083,7 +4100,7 @@
       <c r="AV110" s="10"/>
       <c r="AW110" s="10"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
@@ -4109,7 +4126,7 @@
       <c r="AV111" s="10"/>
       <c r="AW111" s="10"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
@@ -4135,7 +4152,7 @@
       <c r="AV112" s="10"/>
       <c r="AW112" s="10"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
@@ -4161,7 +4178,7 @@
       <c r="AV113" s="10"/>
       <c r="AW113" s="10"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="10"/>
@@ -4187,7 +4204,7 @@
       <c r="AV114" s="10"/>
       <c r="AW114" s="10"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
@@ -4213,7 +4230,7 @@
       <c r="AV115" s="10"/>
       <c r="AW115" s="10"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="10"/>
@@ -4239,7 +4256,7 @@
       <c r="AV116" s="10"/>
       <c r="AW116" s="10"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="10"/>
@@ -4265,7 +4282,7 @@
       <c r="AV117" s="10"/>
       <c r="AW117" s="10"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
@@ -4291,7 +4308,7 @@
       <c r="AV118" s="10"/>
       <c r="AW118" s="10"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="10"/>
@@ -4317,7 +4334,7 @@
       <c r="AV119" s="10"/>
       <c r="AW119" s="10"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="10"/>
@@ -4343,7 +4360,7 @@
       <c r="AV120" s="10"/>
       <c r="AW120" s="10"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="10"/>
@@ -4369,7 +4386,7 @@
       <c r="AV121" s="10"/>
       <c r="AW121" s="10"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="10"/>
@@ -4395,7 +4412,7 @@
       <c r="AV122" s="10"/>
       <c r="AW122" s="10"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="10"/>
@@ -4421,7 +4438,7 @@
       <c r="AV123" s="10"/>
       <c r="AW123" s="10"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="10"/>
@@ -4447,7 +4464,7 @@
       <c r="AV124" s="10"/>
       <c r="AW124" s="10"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="10"/>
@@ -4473,7 +4490,7 @@
       <c r="AV125" s="10"/>
       <c r="AW125" s="10"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="10"/>
@@ -4499,7 +4516,7 @@
       <c r="AV126" s="10"/>
       <c r="AW126" s="10"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="10"/>
@@ -4525,7 +4542,7 @@
       <c r="AV127" s="10"/>
       <c r="AW127" s="10"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="10"/>
@@ -4551,7 +4568,7 @@
       <c r="AV128" s="10"/>
       <c r="AW128" s="10"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="10"/>
@@ -4577,7 +4594,7 @@
       <c r="AV129" s="10"/>
       <c r="AW129" s="10"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
@@ -4603,7 +4620,7 @@
       <c r="AV130" s="10"/>
       <c r="AW130" s="10"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
@@ -4629,7 +4646,7 @@
       <c r="AV131" s="10"/>
       <c r="AW131" s="10"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
@@ -4655,7 +4672,7 @@
       <c r="AV132" s="10"/>
       <c r="AW132" s="10"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
@@ -4681,7 +4698,7 @@
       <c r="AV133" s="10"/>
       <c r="AW133" s="10"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
@@ -4707,7 +4724,7 @@
       <c r="AV134" s="10"/>
       <c r="AW134" s="10"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="10"/>
@@ -4733,7 +4750,7 @@
       <c r="AV135" s="10"/>
       <c r="AW135" s="10"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="10"/>
@@ -4759,7 +4776,7 @@
       <c r="AV136" s="10"/>
       <c r="AW136" s="10"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="10"/>
@@ -4785,7 +4802,7 @@
       <c r="AV137" s="10"/>
       <c r="AW137" s="10"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
@@ -4811,7 +4828,7 @@
       <c r="AV138" s="10"/>
       <c r="AW138" s="10"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="10"/>
@@ -4837,7 +4854,7 @@
       <c r="AV139" s="10"/>
       <c r="AW139" s="10"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="10"/>
@@ -4863,7 +4880,7 @@
       <c r="AV140" s="10"/>
       <c r="AW140" s="10"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="10"/>
@@ -4889,7 +4906,7 @@
       <c r="AV141" s="10"/>
       <c r="AW141" s="10"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="10"/>
@@ -4915,7 +4932,7 @@
       <c r="AV142" s="10"/>
       <c r="AW142" s="10"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="10"/>
@@ -4941,7 +4958,7 @@
       <c r="AV143" s="10"/>
       <c r="AW143" s="10"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="10"/>
@@ -4967,7 +4984,7 @@
       <c r="AV144" s="10"/>
       <c r="AW144" s="10"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="10"/>
@@ -4993,7 +5010,7 @@
       <c r="AV145" s="10"/>
       <c r="AW145" s="10"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="10"/>
@@ -5019,7 +5036,7 @@
       <c r="AV146" s="10"/>
       <c r="AW146" s="10"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="10"/>
@@ -5045,7 +5062,7 @@
       <c r="AV147" s="10"/>
       <c r="AW147" s="10"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
@@ -5071,7 +5088,7 @@
       <c r="AV148" s="10"/>
       <c r="AW148" s="10"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
@@ -5097,7 +5114,7 @@
       <c r="AV149" s="10"/>
       <c r="AW149" s="10"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="10"/>
@@ -5123,7 +5140,7 @@
       <c r="AV150" s="10"/>
       <c r="AW150" s="10"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="10"/>
@@ -5149,7 +5166,7 @@
       <c r="AV151" s="10"/>
       <c r="AW151" s="10"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10"/>
@@ -5175,7 +5192,7 @@
       <c r="AV152" s="10"/>
       <c r="AW152" s="10"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="10"/>
@@ -5201,7 +5218,7 @@
       <c r="AV153" s="10"/>
       <c r="AW153" s="10"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10"/>
@@ -5227,7 +5244,7 @@
       <c r="AV154" s="10"/>
       <c r="AW154" s="10"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="10"/>
@@ -5253,7 +5270,7 @@
       <c r="AV155" s="10"/>
       <c r="AW155" s="10"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="10"/>
@@ -5279,7 +5296,7 @@
       <c r="AV156" s="10"/>
       <c r="AW156" s="10"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="10"/>
@@ -5305,7 +5322,7 @@
       <c r="AV157" s="10"/>
       <c r="AW157" s="10"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="10"/>
@@ -5331,7 +5348,7 @@
       <c r="AV158" s="10"/>
       <c r="AW158" s="10"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="10"/>
@@ -5357,7 +5374,7 @@
       <c r="AV159" s="10"/>
       <c r="AW159" s="10"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="10"/>
@@ -5383,7 +5400,7 @@
       <c r="AV160" s="10"/>
       <c r="AW160" s="10"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="10"/>
@@ -5409,7 +5426,7 @@
       <c r="AV161" s="10"/>
       <c r="AW161" s="10"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="10"/>
@@ -5435,7 +5452,7 @@
       <c r="AV162" s="10"/>
       <c r="AW162" s="10"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="10"/>
@@ -5461,7 +5478,7 @@
       <c r="AV163" s="10"/>
       <c r="AW163" s="10"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="10"/>
@@ -5487,7 +5504,7 @@
       <c r="AV164" s="10"/>
       <c r="AW164" s="10"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="10"/>
@@ -5513,7 +5530,7 @@
       <c r="AV165" s="10"/>
       <c r="AW165" s="10"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="10"/>
@@ -5539,7 +5556,7 @@
       <c r="AV166" s="10"/>
       <c r="AW166" s="10"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="10"/>
@@ -5565,7 +5582,7 @@
       <c r="AV167" s="10"/>
       <c r="AW167" s="10"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="10"/>
@@ -5591,7 +5608,7 @@
       <c r="AV168" s="10"/>
       <c r="AW168" s="10"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="10"/>
@@ -5617,7 +5634,7 @@
       <c r="AV169" s="10"/>
       <c r="AW169" s="10"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="10"/>
@@ -5643,7 +5660,7 @@
       <c r="AV170" s="10"/>
       <c r="AW170" s="10"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="10"/>
@@ -5669,7 +5686,7 @@
       <c r="AV171" s="10"/>
       <c r="AW171" s="10"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="10"/>
@@ -5695,7 +5712,7 @@
       <c r="AV172" s="10"/>
       <c r="AW172" s="10"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="10"/>
@@ -5721,7 +5738,7 @@
       <c r="AV173" s="10"/>
       <c r="AW173" s="10"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="10"/>
@@ -5747,7 +5764,7 @@
       <c r="AV174" s="10"/>
       <c r="AW174" s="10"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="10"/>
@@ -5773,7 +5790,7 @@
       <c r="AV175" s="10"/>
       <c r="AW175" s="10"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
@@ -5799,7 +5816,7 @@
       <c r="AV176" s="10"/>
       <c r="AW176" s="10"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="10"/>
@@ -5825,7 +5842,7 @@
       <c r="AV177" s="10"/>
       <c r="AW177" s="10"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="10"/>
@@ -5851,7 +5868,7 @@
       <c r="AV178" s="10"/>
       <c r="AW178" s="10"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="10"/>
@@ -5877,7 +5894,7 @@
       <c r="AV179" s="10"/>
       <c r="AW179" s="10"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="10"/>
@@ -5903,7 +5920,7 @@
       <c r="AV180" s="10"/>
       <c r="AW180" s="10"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="10"/>
@@ -5929,7 +5946,7 @@
       <c r="AV181" s="10"/>
       <c r="AW181" s="10"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="10"/>
@@ -5955,7 +5972,7 @@
       <c r="AV182" s="10"/>
       <c r="AW182" s="10"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="10"/>
@@ -5981,7 +5998,7 @@
       <c r="AV183" s="10"/>
       <c r="AW183" s="10"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="10"/>
@@ -6007,7 +6024,7 @@
       <c r="AV184" s="10"/>
       <c r="AW184" s="10"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="10"/>
@@ -6033,7 +6050,7 @@
       <c r="AV185" s="10"/>
       <c r="AW185" s="10"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="10"/>
@@ -6059,7 +6076,7 @@
       <c r="AV186" s="10"/>
       <c r="AW186" s="10"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="10"/>
@@ -6085,7 +6102,7 @@
       <c r="AV187" s="10"/>
       <c r="AW187" s="10"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="10"/>
@@ -6111,7 +6128,7 @@
       <c r="AV188" s="10"/>
       <c r="AW188" s="10"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="10"/>
@@ -6137,7 +6154,7 @@
       <c r="AV189" s="10"/>
       <c r="AW189" s="10"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="10"/>
@@ -6163,7 +6180,7 @@
       <c r="AV190" s="10"/>
       <c r="AW190" s="10"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="10"/>
@@ -6189,7 +6206,7 @@
       <c r="AV191" s="10"/>
       <c r="AW191" s="10"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="10"/>
@@ -6215,7 +6232,7 @@
       <c r="AV192" s="10"/>
       <c r="AW192" s="10"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="10"/>
@@ -6241,7 +6258,7 @@
       <c r="AV193" s="10"/>
       <c r="AW193" s="10"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="10"/>
@@ -6267,7 +6284,7 @@
       <c r="AV194" s="10"/>
       <c r="AW194" s="10"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="10"/>
@@ -6293,7 +6310,7 @@
       <c r="AV195" s="10"/>
       <c r="AW195" s="10"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="10"/>
@@ -6319,7 +6336,7 @@
       <c r="AV196" s="10"/>
       <c r="AW196" s="10"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="10"/>
@@ -6345,7 +6362,7 @@
       <c r="AV197" s="10"/>
       <c r="AW197" s="10"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="10"/>
@@ -6371,7 +6388,7 @@
       <c r="AV198" s="10"/>
       <c r="AW198" s="10"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="10"/>
@@ -6397,7 +6414,7 @@
       <c r="AV199" s="10"/>
       <c r="AW199" s="10"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="10"/>
@@ -6423,7 +6440,7 @@
       <c r="AV200" s="10"/>
       <c r="AW200" s="10"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="10"/>
@@ -6449,7 +6466,7 @@
       <c r="AV201" s="10"/>
       <c r="AW201" s="10"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="10"/>
@@ -6475,7 +6492,7 @@
       <c r="AV202" s="10"/>
       <c r="AW202" s="10"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="10"/>
@@ -6501,7 +6518,7 @@
       <c r="AV203" s="10"/>
       <c r="AW203" s="10"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="10"/>
@@ -6527,7 +6544,7 @@
       <c r="AV204" s="10"/>
       <c r="AW204" s="10"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="10"/>
@@ -6553,7 +6570,7 @@
       <c r="AV205" s="10"/>
       <c r="AW205" s="10"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="10"/>
@@ -6579,7 +6596,7 @@
       <c r="AV206" s="10"/>
       <c r="AW206" s="10"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="10"/>
@@ -6605,7 +6622,7 @@
       <c r="AV207" s="10"/>
       <c r="AW207" s="10"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="10"/>
@@ -6631,7 +6648,7 @@
       <c r="AV208" s="10"/>
       <c r="AW208" s="10"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="10"/>
@@ -6657,7 +6674,7 @@
       <c r="AV209" s="10"/>
       <c r="AW209" s="10"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="10"/>
@@ -6683,7 +6700,7 @@
       <c r="AV210" s="10"/>
       <c r="AW210" s="10"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="10"/>
@@ -6709,7 +6726,7 @@
       <c r="AV211" s="10"/>
       <c r="AW211" s="10"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="10"/>
@@ -6735,7 +6752,7 @@
       <c r="AV212" s="10"/>
       <c r="AW212" s="10"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="10"/>
@@ -6761,7 +6778,7 @@
       <c r="AV213" s="10"/>
       <c r="AW213" s="10"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="10"/>
@@ -6787,7 +6804,7 @@
       <c r="AV214" s="10"/>
       <c r="AW214" s="10"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="10"/>
@@ -6813,7 +6830,7 @@
       <c r="AV215" s="10"/>
       <c r="AW215" s="10"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="10"/>
@@ -6839,7 +6856,7 @@
       <c r="AV216" s="10"/>
       <c r="AW216" s="10"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="10"/>
@@ -6865,7 +6882,7 @@
       <c r="AV217" s="10"/>
       <c r="AW217" s="10"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="10"/>
@@ -6891,7 +6908,7 @@
       <c r="AV218" s="10"/>
       <c r="AW218" s="10"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="10"/>
@@ -6917,7 +6934,7 @@
       <c r="AV219" s="10"/>
       <c r="AW219" s="10"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="10"/>
@@ -6943,7 +6960,7 @@
       <c r="AV220" s="10"/>
       <c r="AW220" s="10"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="10"/>
@@ -6969,7 +6986,7 @@
       <c r="AV221" s="10"/>
       <c r="AW221" s="10"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="10"/>
@@ -6995,7 +7012,7 @@
       <c r="AV222" s="10"/>
       <c r="AW222" s="10"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="10"/>
@@ -7021,7 +7038,7 @@
       <c r="AV223" s="10"/>
       <c r="AW223" s="10"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="10"/>
@@ -7047,7 +7064,7 @@
       <c r="AV224" s="10"/>
       <c r="AW224" s="10"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="10"/>
@@ -7073,7 +7090,7 @@
       <c r="AV225" s="10"/>
       <c r="AW225" s="10"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="10"/>
@@ -7099,7 +7116,7 @@
       <c r="AV226" s="10"/>
       <c r="AW226" s="10"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="10"/>
@@ -7125,7 +7142,7 @@
       <c r="AV227" s="10"/>
       <c r="AW227" s="10"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="10"/>
@@ -7151,7 +7168,7 @@
       <c r="AV228" s="10"/>
       <c r="AW228" s="10"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="10"/>
@@ -7177,7 +7194,7 @@
       <c r="AV229" s="10"/>
       <c r="AW229" s="10"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="10"/>
@@ -7203,7 +7220,7 @@
       <c r="AV230" s="10"/>
       <c r="AW230" s="10"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="10"/>
@@ -7229,7 +7246,7 @@
       <c r="AV231" s="10"/>
       <c r="AW231" s="10"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="10"/>
@@ -7255,7 +7272,7 @@
       <c r="AV232" s="10"/>
       <c r="AW232" s="10"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="10"/>
@@ -7281,7 +7298,7 @@
       <c r="AV233" s="10"/>
       <c r="AW233" s="10"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="10"/>
@@ -7307,7 +7324,7 @@
       <c r="AV234" s="10"/>
       <c r="AW234" s="10"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="10"/>
@@ -7333,7 +7350,7 @@
       <c r="AV235" s="10"/>
       <c r="AW235" s="10"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="10"/>
@@ -7359,7 +7376,7 @@
       <c r="AV236" s="10"/>
       <c r="AW236" s="10"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="10"/>
@@ -7385,7 +7402,7 @@
       <c r="AV237" s="10"/>
       <c r="AW237" s="10"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="10"/>
@@ -7411,7 +7428,7 @@
       <c r="AV238" s="10"/>
       <c r="AW238" s="10"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="10"/>
@@ -7437,7 +7454,7 @@
       <c r="AV239" s="10"/>
       <c r="AW239" s="10"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="10"/>
@@ -7463,7 +7480,7 @@
       <c r="AV240" s="10"/>
       <c r="AW240" s="10"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="10"/>
@@ -7489,7 +7506,7 @@
       <c r="AV241" s="10"/>
       <c r="AW241" s="10"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="10"/>
@@ -7515,7 +7532,7 @@
       <c r="AV242" s="10"/>
       <c r="AW242" s="10"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="10"/>
@@ -7541,7 +7558,7 @@
       <c r="AV243" s="10"/>
       <c r="AW243" s="10"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="10"/>
@@ -7567,7 +7584,7 @@
       <c r="AV244" s="10"/>
       <c r="AW244" s="10"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="10"/>
@@ -7593,7 +7610,7 @@
       <c r="AV245" s="10"/>
       <c r="AW245" s="10"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="10"/>
@@ -7619,7 +7636,7 @@
       <c r="AV246" s="10"/>
       <c r="AW246" s="10"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="10"/>
@@ -7645,7 +7662,7 @@
       <c r="AV247" s="10"/>
       <c r="AW247" s="10"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="10"/>
@@ -7671,7 +7688,7 @@
       <c r="AV248" s="10"/>
       <c r="AW248" s="10"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A249" s="11"/>
       <c r="B249" s="11"/>
       <c r="C249" s="10"/>
@@ -7697,7 +7714,7 @@
       <c r="AV249" s="10"/>
       <c r="AW249" s="10"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="10"/>
@@ -7723,7 +7740,7 @@
       <c r="AV250" s="10"/>
       <c r="AW250" s="10"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="10"/>
@@ -7749,7 +7766,7 @@
       <c r="AV251" s="10"/>
       <c r="AW251" s="10"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="10"/>
@@ -7775,7 +7792,7 @@
       <c r="AV252" s="10"/>
       <c r="AW252" s="10"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="10"/>
@@ -7801,7 +7818,7 @@
       <c r="AV253" s="10"/>
       <c r="AW253" s="10"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="10"/>
@@ -7827,7 +7844,7 @@
       <c r="AV254" s="10"/>
       <c r="AW254" s="10"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="10"/>
@@ -7853,7 +7870,7 @@
       <c r="AV255" s="10"/>
       <c r="AW255" s="10"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="10"/>
@@ -7879,7 +7896,7 @@
       <c r="AV256" s="10"/>
       <c r="AW256" s="10"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="10"/>
@@ -7905,7 +7922,7 @@
       <c r="AV257" s="10"/>
       <c r="AW257" s="10"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="10"/>
@@ -7931,7 +7948,7 @@
       <c r="AV258" s="10"/>
       <c r="AW258" s="10"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="10"/>
@@ -7957,7 +7974,7 @@
       <c r="AV259" s="10"/>
       <c r="AW259" s="10"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="10"/>
@@ -7983,7 +8000,7 @@
       <c r="AV260" s="10"/>
       <c r="AW260" s="10"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="10"/>
@@ -8009,7 +8026,7 @@
       <c r="AV261" s="10"/>
       <c r="AW261" s="10"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="10"/>
@@ -8035,7 +8052,7 @@
       <c r="AV262" s="10"/>
       <c r="AW262" s="10"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="10"/>
@@ -8061,7 +8078,7 @@
       <c r="AV263" s="10"/>
       <c r="AW263" s="10"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="10"/>
@@ -8087,7 +8104,7 @@
       <c r="AV264" s="10"/>
       <c r="AW264" s="10"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="10"/>
@@ -8113,7 +8130,7 @@
       <c r="AV265" s="10"/>
       <c r="AW265" s="10"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A266" s="11"/>
       <c r="B266" s="11"/>
       <c r="C266" s="10"/>
@@ -8139,7 +8156,7 @@
       <c r="AV266" s="10"/>
       <c r="AW266" s="10"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A267" s="11"/>
       <c r="B267" s="11"/>
       <c r="C267" s="10"/>
@@ -8165,7 +8182,7 @@
       <c r="AV267" s="10"/>
       <c r="AW267" s="10"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="10"/>
@@ -8191,7 +8208,7 @@
       <c r="AV268" s="10"/>
       <c r="AW268" s="10"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="10"/>
@@ -8217,7 +8234,7 @@
       <c r="AV269" s="10"/>
       <c r="AW269" s="10"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="10"/>
@@ -8243,7 +8260,7 @@
       <c r="AV270" s="10"/>
       <c r="AW270" s="10"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="10"/>
@@ -8269,7 +8286,7 @@
       <c r="AV271" s="10"/>
       <c r="AW271" s="10"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="10"/>
@@ -8295,7 +8312,7 @@
       <c r="AV272" s="10"/>
       <c r="AW272" s="10"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="10"/>
@@ -8321,7 +8338,7 @@
       <c r="AV273" s="10"/>
       <c r="AW273" s="10"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="10"/>
@@ -8347,7 +8364,7 @@
       <c r="AV274" s="10"/>
       <c r="AW274" s="10"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="10"/>
@@ -8373,7 +8390,7 @@
       <c r="AV275" s="10"/>
       <c r="AW275" s="10"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="10"/>
@@ -8399,7 +8416,7 @@
       <c r="AV276" s="10"/>
       <c r="AW276" s="10"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="10"/>
@@ -8425,7 +8442,7 @@
       <c r="AV277" s="10"/>
       <c r="AW277" s="10"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="10"/>
@@ -8451,7 +8468,7 @@
       <c r="AV278" s="10"/>
       <c r="AW278" s="10"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="10"/>
@@ -8477,7 +8494,7 @@
       <c r="AV279" s="10"/>
       <c r="AW279" s="10"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="10"/>
@@ -8503,7 +8520,7 @@
       <c r="AV280" s="10"/>
       <c r="AW280" s="10"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="10"/>
@@ -8529,7 +8546,7 @@
       <c r="AV281" s="10"/>
       <c r="AW281" s="10"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="10"/>
@@ -8555,7 +8572,7 @@
       <c r="AV282" s="10"/>
       <c r="AW282" s="10"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="10"/>
@@ -8581,7 +8598,7 @@
       <c r="AV283" s="10"/>
       <c r="AW283" s="10"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
       <c r="C284" s="10"/>
@@ -8607,7 +8624,7 @@
       <c r="AV284" s="10"/>
       <c r="AW284" s="10"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A285" s="11"/>
       <c r="B285" s="11"/>
       <c r="C285" s="10"/>
@@ -8633,7 +8650,7 @@
       <c r="AV285" s="10"/>
       <c r="AW285" s="10"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
       <c r="C286" s="10"/>
@@ -8659,7 +8676,7 @@
       <c r="AV286" s="10"/>
       <c r="AW286" s="10"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A287" s="11"/>
       <c r="B287" s="11"/>
       <c r="C287" s="10"/>
@@ -8685,7 +8702,7 @@
       <c r="AV287" s="10"/>
       <c r="AW287" s="10"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A288" s="11"/>
       <c r="B288" s="11"/>
       <c r="C288" s="10"/>
@@ -8711,7 +8728,7 @@
       <c r="AV288" s="10"/>
       <c r="AW288" s="10"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A289" s="11"/>
       <c r="B289" s="11"/>
       <c r="C289" s="10"/>
@@ -8737,7 +8754,7 @@
       <c r="AV289" s="10"/>
       <c r="AW289" s="10"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="10"/>
@@ -8763,7 +8780,7 @@
       <c r="AV290" s="10"/>
       <c r="AW290" s="10"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A291" s="11"/>
       <c r="B291" s="11"/>
       <c r="C291" s="10"/>
@@ -8789,7 +8806,7 @@
       <c r="AV291" s="10"/>
       <c r="AW291" s="10"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A292" s="11"/>
       <c r="B292" s="11"/>
       <c r="C292" s="10"/>
@@ -8815,7 +8832,7 @@
       <c r="AV292" s="10"/>
       <c r="AW292" s="10"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A293" s="11"/>
       <c r="B293" s="11"/>
       <c r="C293" s="10"/>
@@ -8841,7 +8858,7 @@
       <c r="AV293" s="10"/>
       <c r="AW293" s="10"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A294" s="11"/>
       <c r="B294" s="11"/>
       <c r="C294" s="10"/>
@@ -8867,7 +8884,7 @@
       <c r="AV294" s="10"/>
       <c r="AW294" s="10"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A295" s="11"/>
       <c r="B295" s="11"/>
       <c r="C295" s="10"/>
@@ -8893,7 +8910,7 @@
       <c r="AV295" s="10"/>
       <c r="AW295" s="10"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A296" s="11"/>
       <c r="B296" s="11"/>
       <c r="C296" s="10"/>
@@ -8919,7 +8936,7 @@
       <c r="AV296" s="10"/>
       <c r="AW296" s="10"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="10"/>
@@ -8945,7 +8962,7 @@
       <c r="AV297" s="10"/>
       <c r="AW297" s="10"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="10"/>
@@ -8971,7 +8988,7 @@
       <c r="AV298" s="10"/>
       <c r="AW298" s="10"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="10"/>
@@ -8997,7 +9014,7 @@
       <c r="AV299" s="10"/>
       <c r="AW299" s="10"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A300" s="11"/>
       <c r="B300" s="11"/>
       <c r="C300" s="10"/>
@@ -9023,7 +9040,7 @@
       <c r="AV300" s="10"/>
       <c r="AW300" s="10"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A301" s="11"/>
       <c r="B301" s="11"/>
       <c r="C301" s="10"/>
@@ -9049,7 +9066,7 @@
       <c r="AV301" s="10"/>
       <c r="AW301" s="10"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="10"/>
@@ -9075,7 +9092,7 @@
       <c r="AV302" s="10"/>
       <c r="AW302" s="10"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="10"/>
@@ -9101,7 +9118,7 @@
       <c r="AV303" s="10"/>
       <c r="AW303" s="10"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="10"/>
@@ -9127,7 +9144,7 @@
       <c r="AV304" s="10"/>
       <c r="AW304" s="10"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="10"/>
@@ -9153,7 +9170,7 @@
       <c r="AV305" s="10"/>
       <c r="AW305" s="10"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="10"/>
@@ -9179,7 +9196,7 @@
       <c r="AV306" s="10"/>
       <c r="AW306" s="10"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="10"/>
@@ -9205,7 +9222,7 @@
       <c r="AV307" s="10"/>
       <c r="AW307" s="10"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="10"/>
@@ -9231,7 +9248,7 @@
       <c r="AV308" s="10"/>
       <c r="AW308" s="10"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A309" s="11"/>
       <c r="B309" s="11"/>
       <c r="C309" s="10"/>
@@ -9257,7 +9274,7 @@
       <c r="AV309" s="10"/>
       <c r="AW309" s="10"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A310" s="11"/>
       <c r="B310" s="11"/>
       <c r="C310" s="10"/>
@@ -9283,7 +9300,7 @@
       <c r="AV310" s="10"/>
       <c r="AW310" s="10"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A311" s="11"/>
       <c r="B311" s="11"/>
       <c r="C311" s="10"/>
@@ -9309,7 +9326,7 @@
       <c r="AV311" s="10"/>
       <c r="AW311" s="10"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="10"/>
@@ -9335,7 +9352,7 @@
       <c r="AV312" s="10"/>
       <c r="AW312" s="10"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A313" s="11"/>
       <c r="B313" s="11"/>
       <c r="C313" s="10"/>
@@ -9361,7 +9378,7 @@
       <c r="AV313" s="10"/>
       <c r="AW313" s="10"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="10"/>
@@ -9387,7 +9404,7 @@
       <c r="AV314" s="10"/>
       <c r="AW314" s="10"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="10"/>
@@ -9413,7 +9430,7 @@
       <c r="AV315" s="10"/>
       <c r="AW315" s="10"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A316" s="11"/>
       <c r="B316" s="11"/>
       <c r="C316" s="10"/>
@@ -9439,7 +9456,7 @@
       <c r="AV316" s="10"/>
       <c r="AW316" s="10"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A317" s="11"/>
       <c r="B317" s="11"/>
       <c r="C317" s="10"/>
@@ -9465,7 +9482,7 @@
       <c r="AV317" s="10"/>
       <c r="AW317" s="10"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A318" s="11"/>
       <c r="B318" s="11"/>
       <c r="C318" s="10"/>
@@ -9491,7 +9508,7 @@
       <c r="AV318" s="10"/>
       <c r="AW318" s="10"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A319" s="11"/>
       <c r="B319" s="11"/>
       <c r="C319" s="10"/>
@@ -9517,7 +9534,7 @@
       <c r="AV319" s="10"/>
       <c r="AW319" s="10"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A320" s="11"/>
       <c r="B320" s="11"/>
       <c r="C320" s="10"/>
@@ -9543,7 +9560,7 @@
       <c r="AV320" s="10"/>
       <c r="AW320" s="10"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A321" s="11"/>
       <c r="B321" s="11"/>
       <c r="C321" s="10"/>
@@ -9569,7 +9586,7 @@
       <c r="AV321" s="10"/>
       <c r="AW321" s="10"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A322" s="11"/>
       <c r="B322" s="11"/>
       <c r="C322" s="10"/>
@@ -9595,7 +9612,7 @@
       <c r="AV322" s="10"/>
       <c r="AW322" s="10"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A323" s="11"/>
       <c r="B323" s="11"/>
       <c r="C323" s="10"/>
@@ -9621,7 +9638,7 @@
       <c r="AV323" s="10"/>
       <c r="AW323" s="10"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A324" s="11"/>
       <c r="B324" s="11"/>
       <c r="C324" s="10"/>
@@ -9647,7 +9664,7 @@
       <c r="AV324" s="10"/>
       <c r="AW324" s="10"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A325" s="11"/>
       <c r="B325" s="11"/>
       <c r="C325" s="10"/>
@@ -9673,7 +9690,7 @@
       <c r="AV325" s="10"/>
       <c r="AW325" s="10"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A326" s="11"/>
       <c r="B326" s="11"/>
       <c r="C326" s="10"/>
@@ -9699,7 +9716,7 @@
       <c r="AV326" s="10"/>
       <c r="AW326" s="10"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A327" s="11"/>
       <c r="B327" s="11"/>
       <c r="C327" s="10"/>
@@ -9725,7 +9742,7 @@
       <c r="AV327" s="10"/>
       <c r="AW327" s="10"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A328" s="11"/>
       <c r="B328" s="11"/>
       <c r="C328" s="10"/>
@@ -9751,7 +9768,7 @@
       <c r="AV328" s="10"/>
       <c r="AW328" s="10"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A329" s="11"/>
       <c r="B329" s="11"/>
       <c r="C329" s="10"/>
@@ -9777,7 +9794,7 @@
       <c r="AV329" s="10"/>
       <c r="AW329" s="10"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A330" s="11"/>
       <c r="B330" s="11"/>
       <c r="C330" s="10"/>
@@ -9803,7 +9820,7 @@
       <c r="AV330" s="10"/>
       <c r="AW330" s="10"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A331" s="11"/>
       <c r="B331" s="11"/>
       <c r="C331" s="10"/>
@@ -9829,7 +9846,7 @@
       <c r="AV331" s="10"/>
       <c r="AW331" s="10"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A332" s="11"/>
       <c r="B332" s="11"/>
       <c r="C332" s="10"/>
@@ -9855,7 +9872,7 @@
       <c r="AV332" s="10"/>
       <c r="AW332" s="10"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A333" s="11"/>
       <c r="B333" s="11"/>
       <c r="C333" s="10"/>
@@ -9881,7 +9898,7 @@
       <c r="AV333" s="10"/>
       <c r="AW333" s="10"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A334" s="11"/>
       <c r="B334" s="11"/>
       <c r="C334" s="10"/>
@@ -9907,7 +9924,7 @@
       <c r="AV334" s="10"/>
       <c r="AW334" s="10"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A335" s="11"/>
       <c r="B335" s="11"/>
       <c r="C335" s="10"/>
@@ -9933,7 +9950,7 @@
       <c r="AV335" s="10"/>
       <c r="AW335" s="10"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A336" s="11"/>
       <c r="B336" s="11"/>
       <c r="C336" s="10"/>
@@ -9959,7 +9976,7 @@
       <c r="AV336" s="10"/>
       <c r="AW336" s="10"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A337" s="11"/>
       <c r="B337" s="11"/>
       <c r="C337" s="10"/>
@@ -9985,7 +10002,7 @@
       <c r="AV337" s="10"/>
       <c r="AW337" s="10"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A338" s="11"/>
       <c r="B338" s="11"/>
       <c r="C338" s="10"/>
@@ -10011,7 +10028,7 @@
       <c r="AV338" s="10"/>
       <c r="AW338" s="10"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="10"/>
@@ -10037,7 +10054,7 @@
       <c r="AV339" s="10"/>
       <c r="AW339" s="10"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A340" s="11"/>
       <c r="B340" s="11"/>
       <c r="C340" s="10"/>
@@ -10063,7 +10080,7 @@
       <c r="AV340" s="10"/>
       <c r="AW340" s="10"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A341" s="11"/>
       <c r="B341" s="11"/>
       <c r="C341" s="10"/>
@@ -10089,7 +10106,7 @@
       <c r="AV341" s="10"/>
       <c r="AW341" s="10"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A342" s="11"/>
       <c r="B342" s="11"/>
       <c r="C342" s="10"/>
@@ -10115,7 +10132,7 @@
       <c r="AV342" s="10"/>
       <c r="AW342" s="10"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A343" s="11"/>
       <c r="B343" s="11"/>
       <c r="C343" s="10"/>
@@ -10141,7 +10158,7 @@
       <c r="AV343" s="10"/>
       <c r="AW343" s="10"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A344" s="11"/>
       <c r="B344" s="11"/>
       <c r="C344" s="10"/>
@@ -10167,7 +10184,7 @@
       <c r="AV344" s="10"/>
       <c r="AW344" s="10"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A345" s="11"/>
       <c r="B345" s="11"/>
       <c r="C345" s="10"/>
@@ -10193,7 +10210,7 @@
       <c r="AV345" s="10"/>
       <c r="AW345" s="10"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A346" s="11"/>
       <c r="B346" s="11"/>
       <c r="C346" s="10"/>
@@ -10219,7 +10236,7 @@
       <c r="AV346" s="10"/>
       <c r="AW346" s="10"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A347" s="11"/>
       <c r="B347" s="11"/>
       <c r="C347" s="10"/>
@@ -10245,7 +10262,7 @@
       <c r="AV347" s="10"/>
       <c r="AW347" s="10"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A348" s="11"/>
       <c r="B348" s="11"/>
       <c r="C348" s="10"/>
@@ -10271,7 +10288,7 @@
       <c r="AV348" s="10"/>
       <c r="AW348" s="10"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A349" s="11"/>
       <c r="B349" s="11"/>
       <c r="C349" s="10"/>
@@ -10297,7 +10314,7 @@
       <c r="AV349" s="10"/>
       <c r="AW349" s="10"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A350" s="11"/>
       <c r="B350" s="11"/>
       <c r="C350" s="10"/>
@@ -10323,7 +10340,7 @@
       <c r="AV350" s="10"/>
       <c r="AW350" s="10"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A351" s="11"/>
       <c r="B351" s="11"/>
       <c r="C351" s="10"/>
@@ -10349,7 +10366,7 @@
       <c r="AV351" s="10"/>
       <c r="AW351" s="10"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A352" s="11"/>
       <c r="B352" s="11"/>
       <c r="C352" s="10"/>
@@ -10375,7 +10392,7 @@
       <c r="AV352" s="10"/>
       <c r="AW352" s="10"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A353" s="11"/>
       <c r="B353" s="11"/>
       <c r="C353" s="10"/>
@@ -10401,7 +10418,7 @@
       <c r="AV353" s="10"/>
       <c r="AW353" s="10"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A354" s="11"/>
       <c r="B354" s="11"/>
       <c r="C354" s="10"/>
@@ -10427,7 +10444,7 @@
       <c r="AV354" s="10"/>
       <c r="AW354" s="10"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A355" s="11"/>
       <c r="B355" s="11"/>
       <c r="C355" s="10"/>
@@ -10453,7 +10470,7 @@
       <c r="AV355" s="10"/>
       <c r="AW355" s="10"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A356" s="11"/>
       <c r="B356" s="11"/>
       <c r="C356" s="10"/>
@@ -10479,7 +10496,7 @@
       <c r="AV356" s="10"/>
       <c r="AW356" s="10"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="10"/>
@@ -10505,7 +10522,7 @@
       <c r="AV357" s="10"/>
       <c r="AW357" s="10"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A358" s="11"/>
       <c r="B358" s="11"/>
       <c r="C358" s="10"/>
@@ -10531,7 +10548,7 @@
       <c r="AV358" s="10"/>
       <c r="AW358" s="10"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A359" s="11"/>
       <c r="B359" s="11"/>
       <c r="C359" s="10"/>
@@ -10557,7 +10574,7 @@
       <c r="AV359" s="10"/>
       <c r="AW359" s="10"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A360" s="11"/>
       <c r="B360" s="11"/>
       <c r="C360" s="10"/>
@@ -10583,7 +10600,7 @@
       <c r="AV360" s="10"/>
       <c r="AW360" s="10"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A361" s="11"/>
       <c r="B361" s="11"/>
       <c r="C361" s="10"/>
@@ -10609,7 +10626,7 @@
       <c r="AV361" s="10"/>
       <c r="AW361" s="10"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A362" s="11"/>
       <c r="B362" s="11"/>
       <c r="C362" s="10"/>
@@ -10635,7 +10652,7 @@
       <c r="AV362" s="10"/>
       <c r="AW362" s="10"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A363" s="11"/>
       <c r="B363" s="11"/>
       <c r="C363" s="10"/>
@@ -10661,7 +10678,7 @@
       <c r="AV363" s="10"/>
       <c r="AW363" s="10"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A364" s="11"/>
       <c r="B364" s="11"/>
       <c r="C364" s="10"/>
@@ -10687,7 +10704,7 @@
       <c r="AV364" s="10"/>
       <c r="AW364" s="10"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A365" s="11"/>
       <c r="B365" s="11"/>
       <c r="C365" s="10"/>
@@ -10713,7 +10730,7 @@
       <c r="AV365" s="10"/>
       <c r="AW365" s="10"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A366" s="11"/>
       <c r="B366" s="11"/>
       <c r="C366" s="10"/>
@@ -10739,7 +10756,7 @@
       <c r="AV366" s="10"/>
       <c r="AW366" s="10"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A367" s="11"/>
       <c r="B367" s="11"/>
       <c r="C367" s="10"/>
@@ -10765,7 +10782,7 @@
       <c r="AV367" s="10"/>
       <c r="AW367" s="10"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="10"/>
@@ -10791,7 +10808,7 @@
       <c r="AV368" s="10"/>
       <c r="AW368" s="10"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A369" s="11"/>
       <c r="B369" s="11"/>
       <c r="C369" s="10"/>
@@ -10817,7 +10834,7 @@
       <c r="AV369" s="10"/>
       <c r="AW369" s="10"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="10"/>
@@ -10843,7 +10860,7 @@
       <c r="AV370" s="10"/>
       <c r="AW370" s="10"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="10"/>
@@ -10869,7 +10886,7 @@
       <c r="AV371" s="10"/>
       <c r="AW371" s="10"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A372" s="11"/>
       <c r="B372" s="11"/>
       <c r="C372" s="10"/>
@@ -10895,7 +10912,7 @@
       <c r="AV372" s="10"/>
       <c r="AW372" s="10"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="10"/>
@@ -10921,7 +10938,7 @@
       <c r="AV373" s="10"/>
       <c r="AW373" s="10"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A374" s="11"/>
       <c r="B374" s="11"/>
       <c r="C374" s="10"/>
@@ -10947,7 +10964,7 @@
       <c r="AV374" s="10"/>
       <c r="AW374" s="10"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A375" s="11"/>
       <c r="B375" s="11"/>
       <c r="C375" s="10"/>
@@ -10973,7 +10990,7 @@
       <c r="AV375" s="10"/>
       <c r="AW375" s="10"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A376" s="11"/>
       <c r="B376" s="11"/>
       <c r="C376" s="10"/>
@@ -10999,7 +11016,7 @@
       <c r="AV376" s="10"/>
       <c r="AW376" s="10"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A377" s="11"/>
       <c r="B377" s="11"/>
       <c r="C377" s="10"/>
@@ -11025,7 +11042,7 @@
       <c r="AV377" s="10"/>
       <c r="AW377" s="10"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A378" s="11"/>
       <c r="B378" s="11"/>
       <c r="C378" s="10"/>
@@ -11051,7 +11068,7 @@
       <c r="AV378" s="10"/>
       <c r="AW378" s="10"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A379" s="11"/>
       <c r="B379" s="11"/>
       <c r="C379" s="10"/>
@@ -11077,7 +11094,7 @@
       <c r="AV379" s="10"/>
       <c r="AW379" s="10"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A380" s="11"/>
       <c r="B380" s="11"/>
       <c r="C380" s="10"/>
@@ -11103,7 +11120,7 @@
       <c r="AV380" s="10"/>
       <c r="AW380" s="10"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A381" s="11"/>
       <c r="B381" s="11"/>
       <c r="C381" s="10"/>
@@ -11129,7 +11146,7 @@
       <c r="AV381" s="10"/>
       <c r="AW381" s="10"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="10"/>
@@ -11155,7 +11172,7 @@
       <c r="AV382" s="10"/>
       <c r="AW382" s="10"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="10"/>
@@ -11181,7 +11198,7 @@
       <c r="AV383" s="10"/>
       <c r="AW383" s="10"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="10"/>
@@ -11207,7 +11224,7 @@
       <c r="AV384" s="10"/>
       <c r="AW384" s="10"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="10"/>
@@ -11233,7 +11250,7 @@
       <c r="AV385" s="10"/>
       <c r="AW385" s="10"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A386" s="11"/>
       <c r="B386" s="11"/>
       <c r="C386" s="10"/>
@@ -11259,7 +11276,7 @@
       <c r="AV386" s="10"/>
       <c r="AW386" s="10"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A387" s="11"/>
       <c r="B387" s="11"/>
       <c r="C387" s="10"/>
@@ -11285,7 +11302,7 @@
       <c r="AV387" s="10"/>
       <c r="AW387" s="10"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A388" s="11"/>
       <c r="B388" s="11"/>
       <c r="C388" s="10"/>
@@ -11311,7 +11328,7 @@
       <c r="AV388" s="10"/>
       <c r="AW388" s="10"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A389" s="11"/>
       <c r="B389" s="11"/>
       <c r="C389" s="10"/>
@@ -11337,7 +11354,7 @@
       <c r="AV389" s="10"/>
       <c r="AW389" s="10"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A390" s="11"/>
       <c r="B390" s="11"/>
       <c r="C390" s="10"/>
@@ -11363,7 +11380,7 @@
       <c r="AV390" s="10"/>
       <c r="AW390" s="10"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A391" s="11"/>
       <c r="B391" s="11"/>
       <c r="C391" s="10"/>
@@ -11389,7 +11406,7 @@
       <c r="AV391" s="10"/>
       <c r="AW391" s="10"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A392" s="11"/>
       <c r="B392" s="11"/>
       <c r="C392" s="10"/>
@@ -11415,7 +11432,7 @@
       <c r="AV392" s="10"/>
       <c r="AW392" s="10"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A393" s="11"/>
       <c r="B393" s="11"/>
       <c r="C393" s="10"/>
@@ -11441,7 +11458,7 @@
       <c r="AV393" s="10"/>
       <c r="AW393" s="10"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A394" s="11"/>
       <c r="B394" s="11"/>
       <c r="C394" s="10"/>
@@ -11467,7 +11484,7 @@
       <c r="AV394" s="10"/>
       <c r="AW394" s="10"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A395" s="11"/>
       <c r="B395" s="11"/>
       <c r="C395" s="10"/>
@@ -11493,7 +11510,7 @@
       <c r="AV395" s="10"/>
       <c r="AW395" s="10"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A396" s="11"/>
       <c r="B396" s="11"/>
       <c r="C396" s="10"/>
@@ -11519,7 +11536,7 @@
       <c r="AV396" s="10"/>
       <c r="AW396" s="10"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A397" s="11"/>
       <c r="B397" s="11"/>
       <c r="C397" s="10"/>
@@ -11545,7 +11562,7 @@
       <c r="AV397" s="10"/>
       <c r="AW397" s="10"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A398" s="11"/>
       <c r="B398" s="11"/>
       <c r="C398" s="10"/>
@@ -11571,7 +11588,7 @@
       <c r="AV398" s="10"/>
       <c r="AW398" s="10"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A399" s="11"/>
       <c r="B399" s="11"/>
       <c r="C399" s="10"/>
@@ -11597,7 +11614,7 @@
       <c r="AV399" s="10"/>
       <c r="AW399" s="10"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A400" s="11"/>
       <c r="B400" s="11"/>
       <c r="C400" s="10"/>
@@ -11623,7 +11640,7 @@
       <c r="AV400" s="10"/>
       <c r="AW400" s="10"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A401" s="11"/>
       <c r="B401" s="11"/>
       <c r="C401" s="10"/>
@@ -11649,7 +11666,7 @@
       <c r="AV401" s="10"/>
       <c r="AW401" s="10"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A402" s="11"/>
       <c r="B402" s="11"/>
       <c r="C402" s="10"/>
@@ -11675,7 +11692,7 @@
       <c r="AV402" s="10"/>
       <c r="AW402" s="10"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A403" s="11"/>
       <c r="B403" s="11"/>
       <c r="C403" s="10"/>
@@ -11701,7 +11718,7 @@
       <c r="AV403" s="10"/>
       <c r="AW403" s="10"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A404" s="11"/>
       <c r="B404" s="11"/>
       <c r="C404" s="10"/>
@@ -11727,7 +11744,7 @@
       <c r="AV404" s="10"/>
       <c r="AW404" s="10"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A405" s="11"/>
       <c r="B405" s="11"/>
       <c r="C405" s="10"/>
@@ -11753,7 +11770,7 @@
       <c r="AV405" s="10"/>
       <c r="AW405" s="10"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A406" s="11"/>
       <c r="B406" s="11"/>
       <c r="C406" s="10"/>
@@ -11779,7 +11796,7 @@
       <c r="AV406" s="10"/>
       <c r="AW406" s="10"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A407" s="11"/>
       <c r="B407" s="11"/>
       <c r="C407" s="10"/>
@@ -11805,7 +11822,7 @@
       <c r="AV407" s="10"/>
       <c r="AW407" s="10"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A408" s="11"/>
       <c r="B408" s="11"/>
       <c r="C408" s="10"/>
@@ -11831,7 +11848,7 @@
       <c r="AV408" s="10"/>
       <c r="AW408" s="10"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A409" s="11"/>
       <c r="B409" s="11"/>
       <c r="C409" s="10"/>
@@ -11857,7 +11874,7 @@
       <c r="AV409" s="10"/>
       <c r="AW409" s="10"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A410" s="11"/>
       <c r="B410" s="11"/>
       <c r="C410" s="10"/>
@@ -11883,7 +11900,7 @@
       <c r="AV410" s="10"/>
       <c r="AW410" s="10"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A411" s="11"/>
       <c r="B411" s="11"/>
       <c r="C411" s="10"/>
@@ -11909,7 +11926,7 @@
       <c r="AV411" s="10"/>
       <c r="AW411" s="10"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A412" s="11"/>
       <c r="B412" s="11"/>
       <c r="C412" s="10"/>
@@ -11935,7 +11952,7 @@
       <c r="AV412" s="10"/>
       <c r="AW412" s="10"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A413" s="11"/>
       <c r="B413" s="11"/>
       <c r="C413" s="10"/>
@@ -11961,7 +11978,7 @@
       <c r="AV413" s="10"/>
       <c r="AW413" s="10"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A414" s="11"/>
       <c r="B414" s="11"/>
       <c r="C414" s="10"/>
@@ -11987,7 +12004,7 @@
       <c r="AV414" s="10"/>
       <c r="AW414" s="10"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A415" s="11"/>
       <c r="B415" s="11"/>
       <c r="C415" s="10"/>
@@ -12013,7 +12030,7 @@
       <c r="AV415" s="10"/>
       <c r="AW415" s="10"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A416" s="11"/>
       <c r="B416" s="11"/>
       <c r="C416" s="10"/>
@@ -12039,7 +12056,7 @@
       <c r="AV416" s="10"/>
       <c r="AW416" s="10"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A417" s="11"/>
       <c r="B417" s="11"/>
       <c r="C417" s="10"/>
@@ -12065,7 +12082,7 @@
       <c r="AV417" s="10"/>
       <c r="AW417" s="10"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A418" s="11"/>
       <c r="B418" s="11"/>
       <c r="C418" s="10"/>
@@ -12091,7 +12108,7 @@
       <c r="AV418" s="10"/>
       <c r="AW418" s="10"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A419" s="11"/>
       <c r="B419" s="11"/>
       <c r="C419" s="10"/>
@@ -12117,7 +12134,7 @@
       <c r="AV419" s="10"/>
       <c r="AW419" s="10"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A420" s="11"/>
       <c r="B420" s="11"/>
       <c r="C420" s="10"/>
@@ -12143,7 +12160,7 @@
       <c r="AV420" s="10"/>
       <c r="AW420" s="10"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A421" s="11"/>
       <c r="B421" s="11"/>
       <c r="C421" s="10"/>
@@ -12169,7 +12186,7 @@
       <c r="AV421" s="10"/>
       <c r="AW421" s="10"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A422" s="11"/>
       <c r="B422" s="11"/>
       <c r="C422" s="10"/>
@@ -12195,7 +12212,7 @@
       <c r="AV422" s="10"/>
       <c r="AW422" s="10"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A423" s="11"/>
       <c r="B423" s="11"/>
       <c r="C423" s="10"/>
@@ -12221,7 +12238,7 @@
       <c r="AV423" s="10"/>
       <c r="AW423" s="10"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A424" s="11"/>
       <c r="B424" s="11"/>
       <c r="C424" s="10"/>
@@ -12247,7 +12264,7 @@
       <c r="AV424" s="10"/>
       <c r="AW424" s="10"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A425" s="11"/>
       <c r="B425" s="11"/>
       <c r="C425" s="10"/>
@@ -12273,7 +12290,7 @@
       <c r="AV425" s="10"/>
       <c r="AW425" s="10"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A426" s="11"/>
       <c r="B426" s="11"/>
       <c r="C426" s="10"/>
@@ -12299,7 +12316,7 @@
       <c r="AV426" s="10"/>
       <c r="AW426" s="10"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A427" s="11"/>
       <c r="B427" s="11"/>
       <c r="C427" s="10"/>
@@ -12325,7 +12342,7 @@
       <c r="AV427" s="10"/>
       <c r="AW427" s="10"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A428" s="11"/>
       <c r="B428" s="11"/>
       <c r="C428" s="10"/>
@@ -12351,7 +12368,7 @@
       <c r="AV428" s="10"/>
       <c r="AW428" s="10"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A429" s="11"/>
       <c r="B429" s="11"/>
       <c r="C429" s="10"/>
@@ -12377,7 +12394,7 @@
       <c r="AV429" s="10"/>
       <c r="AW429" s="10"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A430" s="11"/>
       <c r="B430" s="11"/>
       <c r="C430" s="10"/>
@@ -12403,7 +12420,7 @@
       <c r="AV430" s="10"/>
       <c r="AW430" s="10"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A431" s="11"/>
       <c r="B431" s="11"/>
       <c r="C431" s="10"/>
@@ -12429,7 +12446,7 @@
       <c r="AV431" s="10"/>
       <c r="AW431" s="10"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A432" s="11"/>
       <c r="B432" s="11"/>
       <c r="C432" s="10"/>
@@ -12455,7 +12472,7 @@
       <c r="AV432" s="10"/>
       <c r="AW432" s="10"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A433" s="11"/>
       <c r="B433" s="11"/>
       <c r="C433" s="10"/>
@@ -12481,7 +12498,7 @@
       <c r="AV433" s="10"/>
       <c r="AW433" s="10"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A434" s="11"/>
       <c r="B434" s="11"/>
       <c r="C434" s="10"/>
@@ -12507,7 +12524,7 @@
       <c r="AV434" s="10"/>
       <c r="AW434" s="10"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A435" s="11"/>
       <c r="B435" s="11"/>
       <c r="C435" s="10"/>
@@ -12533,7 +12550,7 @@
       <c r="AV435" s="10"/>
       <c r="AW435" s="10"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A436" s="11"/>
       <c r="B436" s="11"/>
       <c r="C436" s="10"/>
@@ -12559,7 +12576,7 @@
       <c r="AV436" s="10"/>
       <c r="AW436" s="10"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A437" s="11"/>
       <c r="B437" s="11"/>
       <c r="C437" s="10"/>
@@ -12585,7 +12602,7 @@
       <c r="AV437" s="10"/>
       <c r="AW437" s="10"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A438" s="11"/>
       <c r="B438" s="11"/>
       <c r="C438" s="10"/>
@@ -12611,7 +12628,7 @@
       <c r="AV438" s="10"/>
       <c r="AW438" s="10"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A439" s="11"/>
       <c r="B439" s="11"/>
       <c r="C439" s="10"/>
@@ -12637,7 +12654,7 @@
       <c r="AV439" s="10"/>
       <c r="AW439" s="10"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A440" s="11"/>
       <c r="B440" s="11"/>
       <c r="C440" s="10"/>
@@ -12663,7 +12680,7 @@
       <c r="AV440" s="10"/>
       <c r="AW440" s="10"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A441" s="11"/>
       <c r="B441" s="11"/>
       <c r="C441" s="10"/>
@@ -12689,7 +12706,7 @@
       <c r="AV441" s="10"/>
       <c r="AW441" s="10"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A442" s="11"/>
       <c r="B442" s="11"/>
       <c r="C442" s="10"/>
@@ -12715,7 +12732,7 @@
       <c r="AV442" s="10"/>
       <c r="AW442" s="10"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A443" s="11"/>
       <c r="B443" s="11"/>
       <c r="C443" s="10"/>
@@ -12741,7 +12758,7 @@
       <c r="AV443" s="10"/>
       <c r="AW443" s="10"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A444" s="11"/>
       <c r="B444" s="11"/>
       <c r="C444" s="10"/>
@@ -12767,7 +12784,7 @@
       <c r="AV444" s="10"/>
       <c r="AW444" s="10"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A445" s="11"/>
       <c r="B445" s="11"/>
       <c r="C445" s="10"/>
@@ -12793,7 +12810,7 @@
       <c r="AV445" s="10"/>
       <c r="AW445" s="10"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A446" s="11"/>
       <c r="B446" s="11"/>
       <c r="C446" s="10"/>
@@ -12819,7 +12836,7 @@
       <c r="AV446" s="10"/>
       <c r="AW446" s="10"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A447" s="11"/>
       <c r="B447" s="11"/>
       <c r="C447" s="10"/>
@@ -12845,7 +12862,7 @@
       <c r="AV447" s="10"/>
       <c r="AW447" s="10"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A448" s="11"/>
       <c r="B448" s="11"/>
       <c r="C448" s="10"/>
@@ -12871,7 +12888,7 @@
       <c r="AV448" s="10"/>
       <c r="AW448" s="10"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A449" s="11"/>
       <c r="B449" s="11"/>
       <c r="C449" s="10"/>
@@ -12897,7 +12914,7 @@
       <c r="AV449" s="10"/>
       <c r="AW449" s="10"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A450" s="11"/>
       <c r="B450" s="11"/>
       <c r="C450" s="10"/>
@@ -12923,7 +12940,7 @@
       <c r="AV450" s="10"/>
       <c r="AW450" s="10"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A451" s="11"/>
       <c r="B451" s="11"/>
       <c r="C451" s="10"/>
@@ -12949,7 +12966,7 @@
       <c r="AV451" s="10"/>
       <c r="AW451" s="10"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A452" s="11"/>
       <c r="B452" s="11"/>
       <c r="C452" s="10"/>
@@ -12975,7 +12992,7 @@
       <c r="AV452" s="10"/>
       <c r="AW452" s="10"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A453" s="11"/>
       <c r="B453" s="11"/>
       <c r="C453" s="10"/>
@@ -13001,7 +13018,7 @@
       <c r="AV453" s="10"/>
       <c r="AW453" s="10"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A454" s="11"/>
       <c r="B454" s="11"/>
       <c r="C454" s="10"/>
@@ -13027,7 +13044,7 @@
       <c r="AV454" s="10"/>
       <c r="AW454" s="10"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A455" s="11"/>
       <c r="B455" s="11"/>
       <c r="C455" s="10"/>
@@ -13053,7 +13070,7 @@
       <c r="AV455" s="10"/>
       <c r="AW455" s="10"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A456" s="11"/>
       <c r="B456" s="11"/>
       <c r="C456" s="10"/>
@@ -13079,7 +13096,7 @@
       <c r="AV456" s="10"/>
       <c r="AW456" s="10"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A457" s="11"/>
       <c r="B457" s="11"/>
       <c r="C457" s="10"/>
@@ -13105,7 +13122,7 @@
       <c r="AV457" s="10"/>
       <c r="AW457" s="10"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A458" s="11"/>
       <c r="B458" s="11"/>
       <c r="C458" s="10"/>
@@ -13131,7 +13148,7 @@
       <c r="AV458" s="10"/>
       <c r="AW458" s="10"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A459" s="11"/>
       <c r="B459" s="11"/>
       <c r="C459" s="10"/>
@@ -13157,7 +13174,7 @@
       <c r="AV459" s="10"/>
       <c r="AW459" s="10"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A460" s="11"/>
       <c r="B460" s="11"/>
       <c r="C460" s="10"/>
@@ -13183,7 +13200,7 @@
       <c r="AV460" s="10"/>
       <c r="AW460" s="10"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A461" s="11"/>
       <c r="B461" s="11"/>
       <c r="C461" s="10"/>
@@ -13209,7 +13226,7 @@
       <c r="AV461" s="10"/>
       <c r="AW461" s="10"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A462" s="11"/>
       <c r="B462" s="11"/>
       <c r="C462" s="10"/>
@@ -13235,7 +13252,7 @@
       <c r="AV462" s="10"/>
       <c r="AW462" s="10"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A463" s="11"/>
       <c r="B463" s="11"/>
       <c r="C463" s="10"/>
@@ -13261,7 +13278,7 @@
       <c r="AV463" s="10"/>
       <c r="AW463" s="10"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A464" s="11"/>
       <c r="B464" s="11"/>
       <c r="C464" s="10"/>
@@ -13287,7 +13304,7 @@
       <c r="AV464" s="10"/>
       <c r="AW464" s="10"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A465" s="11"/>
       <c r="B465" s="11"/>
       <c r="C465" s="10"/>
@@ -13313,7 +13330,7 @@
       <c r="AV465" s="10"/>
       <c r="AW465" s="10"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A466" s="11"/>
       <c r="B466" s="11"/>
       <c r="C466" s="10"/>
@@ -13339,7 +13356,7 @@
       <c r="AV466" s="10"/>
       <c r="AW466" s="10"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A467" s="11"/>
       <c r="B467" s="11"/>
       <c r="C467" s="10"/>
@@ -13365,7 +13382,7 @@
       <c r="AV467" s="10"/>
       <c r="AW467" s="10"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A468" s="11"/>
       <c r="B468" s="11"/>
       <c r="C468" s="10"/>
@@ -13391,7 +13408,7 @@
       <c r="AV468" s="10"/>
       <c r="AW468" s="10"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A469" s="11"/>
       <c r="B469" s="11"/>
       <c r="C469" s="10"/>
@@ -13417,7 +13434,7 @@
       <c r="AV469" s="10"/>
       <c r="AW469" s="10"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A470" s="11"/>
       <c r="B470" s="11"/>
       <c r="C470" s="10"/>
@@ -13443,7 +13460,7 @@
       <c r="AV470" s="10"/>
       <c r="AW470" s="10"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A471" s="11"/>
       <c r="B471" s="11"/>
       <c r="C471" s="10"/>
@@ -13469,7 +13486,7 @@
       <c r="AV471" s="10"/>
       <c r="AW471" s="10"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A472" s="11"/>
       <c r="B472" s="11"/>
       <c r="C472" s="10"/>
@@ -13495,7 +13512,7 @@
       <c r="AV472" s="10"/>
       <c r="AW472" s="10"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A473" s="11"/>
       <c r="B473" s="11"/>
       <c r="C473" s="10"/>
@@ -13521,7 +13538,7 @@
       <c r="AV473" s="10"/>
       <c r="AW473" s="10"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A474" s="11"/>
       <c r="B474" s="11"/>
       <c r="C474" s="10"/>
@@ -13547,7 +13564,7 @@
       <c r="AV474" s="10"/>
       <c r="AW474" s="10"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A475" s="11"/>
       <c r="B475" s="11"/>
       <c r="C475" s="10"/>
@@ -13573,7 +13590,7 @@
       <c r="AV475" s="10"/>
       <c r="AW475" s="10"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A476" s="11"/>
       <c r="B476" s="11"/>
       <c r="C476" s="10"/>
@@ -13599,7 +13616,7 @@
       <c r="AV476" s="10"/>
       <c r="AW476" s="10"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A477" s="11"/>
       <c r="B477" s="11"/>
       <c r="C477" s="10"/>
@@ -13625,7 +13642,7 @@
       <c r="AV477" s="10"/>
       <c r="AW477" s="10"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A478" s="11"/>
       <c r="B478" s="11"/>
       <c r="C478" s="10"/>
@@ -13651,7 +13668,7 @@
       <c r="AV478" s="10"/>
       <c r="AW478" s="10"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A479" s="11"/>
       <c r="B479" s="11"/>
       <c r="C479" s="10"/>
@@ -13677,7 +13694,7 @@
       <c r="AV479" s="10"/>
       <c r="AW479" s="10"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A480" s="11"/>
       <c r="B480" s="11"/>
       <c r="C480" s="10"/>
@@ -13703,7 +13720,7 @@
       <c r="AV480" s="10"/>
       <c r="AW480" s="10"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A481" s="11"/>
       <c r="B481" s="11"/>
       <c r="C481" s="10"/>
@@ -13729,7 +13746,7 @@
       <c r="AV481" s="10"/>
       <c r="AW481" s="10"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A482" s="11"/>
       <c r="B482" s="11"/>
       <c r="C482" s="10"/>
@@ -13755,7 +13772,7 @@
       <c r="AV482" s="10"/>
       <c r="AW482" s="10"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A483" s="11"/>
       <c r="B483" s="11"/>
       <c r="C483" s="10"/>
@@ -13781,7 +13798,7 @@
       <c r="AV483" s="10"/>
       <c r="AW483" s="10"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A484" s="11"/>
       <c r="B484" s="11"/>
       <c r="C484" s="10"/>
@@ -13807,7 +13824,7 @@
       <c r="AV484" s="10"/>
       <c r="AW484" s="10"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A485" s="11"/>
       <c r="B485" s="11"/>
       <c r="C485" s="10"/>
@@ -13833,7 +13850,7 @@
       <c r="AV485" s="10"/>
       <c r="AW485" s="10"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A486" s="11"/>
       <c r="B486" s="11"/>
       <c r="C486" s="10"/>
@@ -13859,7 +13876,7 @@
       <c r="AV486" s="10"/>
       <c r="AW486" s="10"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A487" s="11"/>
       <c r="B487" s="11"/>
       <c r="C487" s="10"/>
@@ -13885,7 +13902,7 @@
       <c r="AV487" s="10"/>
       <c r="AW487" s="10"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A488" s="11"/>
       <c r="B488" s="11"/>
       <c r="C488" s="10"/>
@@ -13911,7 +13928,7 @@
       <c r="AV488" s="10"/>
       <c r="AW488" s="10"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A489" s="11"/>
       <c r="B489" s="11"/>
       <c r="C489" s="10"/>
@@ -13937,7 +13954,7 @@
       <c r="AV489" s="10"/>
       <c r="AW489" s="10"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A490" s="11"/>
       <c r="B490" s="11"/>
       <c r="C490" s="10"/>
@@ -13963,7 +13980,7 @@
       <c r="AV490" s="10"/>
       <c r="AW490" s="10"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A491" s="11"/>
       <c r="B491" s="11"/>
       <c r="C491" s="10"/>
@@ -13989,7 +14006,7 @@
       <c r="AV491" s="10"/>
       <c r="AW491" s="10"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A492" s="11"/>
       <c r="B492" s="11"/>
       <c r="C492" s="10"/>
@@ -14015,7 +14032,7 @@
       <c r="AV492" s="10"/>
       <c r="AW492" s="10"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A493" s="11"/>
       <c r="B493" s="11"/>
       <c r="C493" s="10"/>
@@ -14041,7 +14058,7 @@
       <c r="AV493" s="10"/>
       <c r="AW493" s="10"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A494" s="11"/>
       <c r="B494" s="11"/>
       <c r="C494" s="10"/>
@@ -14067,7 +14084,7 @@
       <c r="AV494" s="10"/>
       <c r="AW494" s="10"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A495" s="11"/>
       <c r="B495" s="11"/>
       <c r="C495" s="10"/>
@@ -14093,7 +14110,7 @@
       <c r="AV495" s="10"/>
       <c r="AW495" s="10"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A496" s="11"/>
       <c r="B496" s="11"/>
       <c r="C496" s="10"/>
@@ -14119,7 +14136,7 @@
       <c r="AV496" s="10"/>
       <c r="AW496" s="10"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A497" s="11"/>
       <c r="B497" s="11"/>
       <c r="C497" s="10"/>
@@ -14145,7 +14162,7 @@
       <c r="AV497" s="10"/>
       <c r="AW497" s="10"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A498" s="11"/>
       <c r="B498" s="11"/>
       <c r="C498" s="10"/>
@@ -14171,7 +14188,7 @@
       <c r="AV498" s="10"/>
       <c r="AW498" s="10"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A499" s="11"/>
       <c r="B499" s="11"/>
       <c r="C499" s="10"/>
@@ -14197,7 +14214,7 @@
       <c r="AV499" s="10"/>
       <c r="AW499" s="10"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A500" s="11"/>
       <c r="B500" s="11"/>
       <c r="C500" s="10"/>
@@ -14223,7 +14240,7 @@
       <c r="AV500" s="10"/>
       <c r="AW500" s="10"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A501" s="11"/>
       <c r="B501" s="11"/>
       <c r="C501" s="10"/>
@@ -14249,7 +14266,7 @@
       <c r="AV501" s="10"/>
       <c r="AW501" s="10"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A502" s="11"/>
       <c r="B502" s="11"/>
       <c r="C502" s="10"/>
@@ -14275,7 +14292,7 @@
       <c r="AV502" s="10"/>
       <c r="AW502" s="10"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A503" s="11"/>
       <c r="B503" s="11"/>
       <c r="C503" s="10"/>
@@ -14301,7 +14318,7 @@
       <c r="AV503" s="10"/>
       <c r="AW503" s="10"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A504" s="11"/>
       <c r="B504" s="11"/>
       <c r="C504" s="10"/>
@@ -14327,7 +14344,7 @@
       <c r="AV504" s="10"/>
       <c r="AW504" s="10"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A505" s="11"/>
       <c r="B505" s="11"/>
       <c r="C505" s="10"/>
@@ -14353,7 +14370,7 @@
       <c r="AV505" s="10"/>
       <c r="AW505" s="10"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A506" s="11"/>
       <c r="B506" s="11"/>
       <c r="C506" s="10"/>
@@ -14379,7 +14396,7 @@
       <c r="AV506" s="10"/>
       <c r="AW506" s="10"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A507" s="11"/>
       <c r="B507" s="11"/>
       <c r="C507" s="10"/>
@@ -14405,7 +14422,7 @@
       <c r="AV507" s="10"/>
       <c r="AW507" s="10"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A508" s="11"/>
       <c r="B508" s="11"/>
       <c r="C508" s="10"/>
@@ -14431,7 +14448,7 @@
       <c r="AV508" s="10"/>
       <c r="AW508" s="10"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A509" s="11"/>
       <c r="B509" s="11"/>
       <c r="C509" s="10"/>
@@ -14457,7 +14474,7 @@
       <c r="AV509" s="10"/>
       <c r="AW509" s="10"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A510" s="11"/>
       <c r="B510" s="11"/>
       <c r="C510" s="10"/>
@@ -14483,7 +14500,7 @@
       <c r="AV510" s="10"/>
       <c r="AW510" s="10"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A511" s="11"/>
       <c r="B511" s="11"/>
       <c r="C511" s="10"/>
@@ -14509,7 +14526,7 @@
       <c r="AV511" s="10"/>
       <c r="AW511" s="10"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A512" s="11"/>
       <c r="B512" s="11"/>
       <c r="C512" s="10"/>
@@ -14535,7 +14552,7 @@
       <c r="AV512" s="10"/>
       <c r="AW512" s="10"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A513" s="11"/>
       <c r="B513" s="11"/>
       <c r="C513" s="10"/>
@@ -14561,7 +14578,7 @@
       <c r="AV513" s="10"/>
       <c r="AW513" s="10"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A514" s="11"/>
       <c r="B514" s="11"/>
       <c r="C514" s="10"/>
@@ -14587,7 +14604,7 @@
       <c r="AV514" s="10"/>
       <c r="AW514" s="10"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A515" s="11"/>
       <c r="B515" s="11"/>
       <c r="C515" s="10"/>
@@ -14613,7 +14630,7 @@
       <c r="AV515" s="10"/>
       <c r="AW515" s="10"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A516" s="11"/>
       <c r="B516" s="11"/>
       <c r="C516" s="10"/>
@@ -14639,7 +14656,7 @@
       <c r="AV516" s="10"/>
       <c r="AW516" s="10"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A517" s="11"/>
       <c r="B517" s="11"/>
       <c r="C517" s="10"/>
@@ -14665,7 +14682,7 @@
       <c r="AV517" s="10"/>
       <c r="AW517" s="10"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A518" s="11"/>
       <c r="B518" s="11"/>
       <c r="C518" s="10"/>
@@ -14691,7 +14708,7 @@
       <c r="AV518" s="10"/>
       <c r="AW518" s="10"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A519" s="11"/>
       <c r="B519" s="11"/>
       <c r="C519" s="10"/>
@@ -14717,7 +14734,7 @@
       <c r="AV519" s="10"/>
       <c r="AW519" s="10"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A520" s="11"/>
       <c r="B520" s="11"/>
       <c r="C520" s="10"/>
@@ -14743,7 +14760,7 @@
       <c r="AV520" s="10"/>
       <c r="AW520" s="10"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A521" s="11"/>
       <c r="B521" s="11"/>
       <c r="C521" s="10"/>
@@ -14769,7 +14786,7 @@
       <c r="AV521" s="10"/>
       <c r="AW521" s="10"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A522" s="11"/>
       <c r="B522" s="11"/>
       <c r="C522" s="10"/>
@@ -14795,7 +14812,7 @@
       <c r="AV522" s="10"/>
       <c r="AW522" s="10"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A523" s="11"/>
       <c r="B523" s="11"/>
       <c r="C523" s="10"/>
@@ -14821,7 +14838,7 @@
       <c r="AV523" s="10"/>
       <c r="AW523" s="10"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A524" s="11"/>
       <c r="B524" s="11"/>
       <c r="C524" s="10"/>
@@ -14847,7 +14864,7 @@
       <c r="AV524" s="10"/>
       <c r="AW524" s="10"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A525" s="11"/>
       <c r="B525" s="11"/>
       <c r="C525" s="10"/>
@@ -14873,7 +14890,7 @@
       <c r="AV525" s="10"/>
       <c r="AW525" s="10"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A526" s="11"/>
       <c r="B526" s="11"/>
       <c r="C526" s="10"/>
@@ -14899,7 +14916,7 @@
       <c r="AV526" s="10"/>
       <c r="AW526" s="10"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A527" s="11"/>
       <c r="B527" s="11"/>
       <c r="C527" s="10"/>
@@ -14925,7 +14942,7 @@
       <c r="AV527" s="10"/>
       <c r="AW527" s="10"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A528" s="11"/>
       <c r="B528" s="11"/>
       <c r="C528" s="10"/>
@@ -14951,7 +14968,7 @@
       <c r="AV528" s="10"/>
       <c r="AW528" s="10"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A529" s="11"/>
       <c r="B529" s="11"/>
       <c r="C529" s="10"/>
@@ -14977,7 +14994,7 @@
       <c r="AV529" s="10"/>
       <c r="AW529" s="10"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A530" s="11"/>
       <c r="B530" s="11"/>
       <c r="C530" s="10"/>
@@ -15003,7 +15020,7 @@
       <c r="AV530" s="10"/>
       <c r="AW530" s="10"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A531" s="11"/>
       <c r="B531" s="11"/>
       <c r="C531" s="10"/>
@@ -15029,7 +15046,7 @@
       <c r="AV531" s="10"/>
       <c r="AW531" s="10"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A532" s="11"/>
       <c r="B532" s="11"/>
       <c r="C532" s="10"/>
@@ -15055,7 +15072,7 @@
       <c r="AV532" s="10"/>
       <c r="AW532" s="10"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A533" s="11"/>
       <c r="B533" s="11"/>
       <c r="C533" s="10"/>
@@ -15081,7 +15098,7 @@
       <c r="AV533" s="10"/>
       <c r="AW533" s="10"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A534" s="11"/>
       <c r="B534" s="11"/>
       <c r="C534" s="10"/>
@@ -15107,7 +15124,7 @@
       <c r="AV534" s="10"/>
       <c r="AW534" s="10"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A535" s="11"/>
       <c r="B535" s="11"/>
       <c r="C535" s="10"/>
@@ -15133,7 +15150,7 @@
       <c r="AV535" s="10"/>
       <c r="AW535" s="10"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A536" s="11"/>
       <c r="B536" s="11"/>
       <c r="C536" s="10"/>
@@ -15159,7 +15176,7 @@
       <c r="AV536" s="10"/>
       <c r="AW536" s="10"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A537" s="11"/>
       <c r="B537" s="11"/>
       <c r="C537" s="10"/>
@@ -15185,7 +15202,7 @@
       <c r="AV537" s="10"/>
       <c r="AW537" s="10"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A538" s="11"/>
       <c r="B538" s="11"/>
       <c r="C538" s="10"/>
@@ -15211,7 +15228,7 @@
       <c r="AV538" s="10"/>
       <c r="AW538" s="10"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A539" s="11"/>
       <c r="B539" s="11"/>
       <c r="C539" s="10"/>
@@ -15237,7 +15254,7 @@
       <c r="AV539" s="10"/>
       <c r="AW539" s="10"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A540" s="11"/>
       <c r="B540" s="11"/>
       <c r="C540" s="10"/>
@@ -15263,7 +15280,7 @@
       <c r="AV540" s="10"/>
       <c r="AW540" s="10"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A541" s="11"/>
       <c r="B541" s="11"/>
       <c r="C541" s="10"/>
@@ -15289,7 +15306,7 @@
       <c r="AV541" s="10"/>
       <c r="AW541" s="10"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A542" s="11"/>
       <c r="B542" s="11"/>
       <c r="C542" s="10"/>
@@ -15315,7 +15332,7 @@
       <c r="AV542" s="10"/>
       <c r="AW542" s="10"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A543" s="11"/>
       <c r="B543" s="11"/>
       <c r="C543" s="10"/>
@@ -15341,7 +15358,7 @@
       <c r="AV543" s="10"/>
       <c r="AW543" s="10"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A544" s="11"/>
       <c r="B544" s="11"/>
       <c r="C544" s="10"/>
@@ -15367,7 +15384,7 @@
       <c r="AV544" s="10"/>
       <c r="AW544" s="10"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A545" s="11"/>
       <c r="B545" s="11"/>
       <c r="C545" s="10"/>
@@ -15393,7 +15410,7 @@
       <c r="AV545" s="10"/>
       <c r="AW545" s="10"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A546" s="11"/>
       <c r="B546" s="11"/>
       <c r="C546" s="10"/>
@@ -15419,7 +15436,7 @@
       <c r="AV546" s="10"/>
       <c r="AW546" s="10"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A547" s="11"/>
       <c r="B547" s="11"/>
       <c r="C547" s="10"/>
@@ -15445,7 +15462,7 @@
       <c r="AV547" s="10"/>
       <c r="AW547" s="10"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A548" s="11"/>
       <c r="B548" s="11"/>
       <c r="C548" s="10"/>
@@ -15471,7 +15488,7 @@
       <c r="AV548" s="10"/>
       <c r="AW548" s="10"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A549" s="11"/>
       <c r="B549" s="11"/>
       <c r="C549" s="10"/>
@@ -15497,7 +15514,7 @@
       <c r="AV549" s="10"/>
       <c r="AW549" s="10"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A550" s="11"/>
       <c r="B550" s="11"/>
       <c r="C550" s="10"/>
@@ -15523,7 +15540,7 @@
       <c r="AV550" s="10"/>
       <c r="AW550" s="10"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A551" s="11"/>
       <c r="B551" s="11"/>
       <c r="C551" s="10"/>
@@ -15549,7 +15566,7 @@
       <c r="AV551" s="10"/>
       <c r="AW551" s="10"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A552" s="11"/>
       <c r="B552" s="11"/>
       <c r="C552" s="10"/>
@@ -15575,7 +15592,7 @@
       <c r="AV552" s="10"/>
       <c r="AW552" s="10"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A553" s="11"/>
       <c r="B553" s="11"/>
       <c r="C553" s="10"/>
@@ -15601,7 +15618,7 @@
       <c r="AV553" s="10"/>
       <c r="AW553" s="10"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A554" s="11"/>
       <c r="B554" s="11"/>
       <c r="C554" s="10"/>
@@ -15627,7 +15644,7 @@
       <c r="AV554" s="10"/>
       <c r="AW554" s="10"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A555" s="11"/>
       <c r="B555" s="11"/>
       <c r="C555" s="10"/>
@@ -15653,7 +15670,7 @@
       <c r="AV555" s="10"/>
       <c r="AW555" s="10"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A556" s="11"/>
       <c r="B556" s="11"/>
       <c r="C556" s="10"/>
@@ -15679,7 +15696,7 @@
       <c r="AV556" s="10"/>
       <c r="AW556" s="10"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A557" s="11"/>
       <c r="B557" s="11"/>
       <c r="C557" s="10"/>
@@ -15705,7 +15722,7 @@
       <c r="AV557" s="10"/>
       <c r="AW557" s="10"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A558" s="11"/>
       <c r="B558" s="11"/>
       <c r="C558" s="10"/>
@@ -15731,7 +15748,7 @@
       <c r="AV558" s="10"/>
       <c r="AW558" s="10"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A559" s="11"/>
       <c r="B559" s="11"/>
       <c r="C559" s="10"/>
@@ -15757,7 +15774,7 @@
       <c r="AV559" s="10"/>
       <c r="AW559" s="10"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A560" s="11"/>
       <c r="B560" s="11"/>
       <c r="C560" s="10"/>
@@ -15783,7 +15800,7 @@
       <c r="AV560" s="10"/>
       <c r="AW560" s="10"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A561" s="11"/>
       <c r="B561" s="11"/>
       <c r="C561" s="10"/>
@@ -15809,7 +15826,7 @@
       <c r="AV561" s="10"/>
       <c r="AW561" s="10"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A562" s="11"/>
       <c r="B562" s="11"/>
       <c r="C562" s="10"/>
@@ -15835,7 +15852,7 @@
       <c r="AV562" s="10"/>
       <c r="AW562" s="10"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A563" s="11"/>
       <c r="B563" s="11"/>
       <c r="C563" s="10"/>
@@ -15861,7 +15878,7 @@
       <c r="AV563" s="10"/>
       <c r="AW563" s="10"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A564" s="11"/>
       <c r="B564" s="11"/>
       <c r="C564" s="10"/>
@@ -15887,7 +15904,7 @@
       <c r="AV564" s="10"/>
       <c r="AW564" s="10"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A565" s="11"/>
       <c r="B565" s="11"/>
       <c r="C565" s="10"/>
@@ -15913,7 +15930,7 @@
       <c r="AV565" s="10"/>
       <c r="AW565" s="10"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A566" s="11"/>
       <c r="B566" s="11"/>
       <c r="C566" s="10"/>
@@ -15939,7 +15956,7 @@
       <c r="AV566" s="10"/>
       <c r="AW566" s="10"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A567" s="11"/>
       <c r="B567" s="11"/>
       <c r="C567" s="10"/>
@@ -15965,7 +15982,7 @@
       <c r="AV567" s="10"/>
       <c r="AW567" s="10"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A568" s="11"/>
       <c r="B568" s="11"/>
       <c r="C568" s="10"/>
@@ -15991,7 +16008,7 @@
       <c r="AV568" s="10"/>
       <c r="AW568" s="10"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A569" s="11"/>
       <c r="B569" s="11"/>
       <c r="C569" s="10"/>
@@ -16017,7 +16034,7 @@
       <c r="AV569" s="10"/>
       <c r="AW569" s="10"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A570" s="11"/>
       <c r="B570" s="11"/>
       <c r="C570" s="10"/>
@@ -16043,7 +16060,7 @@
       <c r="AV570" s="10"/>
       <c r="AW570" s="10"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A571" s="11"/>
       <c r="B571" s="11"/>
       <c r="C571" s="10"/>
@@ -16069,7 +16086,7 @@
       <c r="AV571" s="10"/>
       <c r="AW571" s="10"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A572" s="11"/>
       <c r="B572" s="11"/>
       <c r="C572" s="10"/>
@@ -16095,7 +16112,7 @@
       <c r="AV572" s="10"/>
       <c r="AW572" s="10"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A573" s="11"/>
       <c r="B573" s="11"/>
       <c r="C573" s="10"/>
@@ -16121,7 +16138,7 @@
       <c r="AV573" s="10"/>
       <c r="AW573" s="10"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A574" s="11"/>
       <c r="B574" s="11"/>
       <c r="C574" s="10"/>
@@ -16147,7 +16164,7 @@
       <c r="AV574" s="10"/>
       <c r="AW574" s="10"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A575" s="11"/>
       <c r="B575" s="11"/>
       <c r="C575" s="10"/>
@@ -16173,7 +16190,7 @@
       <c r="AV575" s="10"/>
       <c r="AW575" s="10"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A576" s="11"/>
       <c r="B576" s="11"/>
       <c r="C576" s="10"/>
@@ -16199,7 +16216,7 @@
       <c r="AV576" s="10"/>
       <c r="AW576" s="10"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A577" s="11"/>
       <c r="B577" s="11"/>
       <c r="C577" s="10"/>
@@ -16225,7 +16242,7 @@
       <c r="AV577" s="10"/>
       <c r="AW577" s="10"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A578" s="11"/>
       <c r="B578" s="11"/>
       <c r="C578" s="10"/>
@@ -16251,7 +16268,7 @@
       <c r="AV578" s="10"/>
       <c r="AW578" s="10"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A579" s="11"/>
       <c r="B579" s="11"/>
       <c r="C579" s="10"/>
@@ -16277,7 +16294,7 @@
       <c r="AV579" s="10"/>
       <c r="AW579" s="10"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A580" s="11"/>
       <c r="B580" s="11"/>
       <c r="C580" s="10"/>
@@ -16303,7 +16320,7 @@
       <c r="AV580" s="10"/>
       <c r="AW580" s="10"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A581" s="11"/>
       <c r="B581" s="11"/>
       <c r="C581" s="10"/>
@@ -16329,7 +16346,7 @@
       <c r="AV581" s="10"/>
       <c r="AW581" s="10"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A582" s="11"/>
       <c r="B582" s="11"/>
       <c r="C582" s="10"/>
@@ -16355,7 +16372,7 @@
       <c r="AV582" s="10"/>
       <c r="AW582" s="10"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A583" s="11"/>
       <c r="B583" s="11"/>
       <c r="C583" s="10"/>
@@ -16381,7 +16398,7 @@
       <c r="AV583" s="10"/>
       <c r="AW583" s="10"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A584" s="11"/>
       <c r="B584" s="11"/>
       <c r="C584" s="10"/>
@@ -16407,7 +16424,7 @@
       <c r="AV584" s="10"/>
       <c r="AW584" s="10"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A585" s="11"/>
       <c r="B585" s="11"/>
       <c r="C585" s="10"/>
@@ -16433,7 +16450,7 @@
       <c r="AV585" s="10"/>
       <c r="AW585" s="10"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A586" s="11"/>
       <c r="B586" s="11"/>
       <c r="C586" s="10"/>
@@ -16459,7 +16476,7 @@
       <c r="AV586" s="10"/>
       <c r="AW586" s="10"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A587" s="11"/>
       <c r="B587" s="11"/>
       <c r="C587" s="10"/>
@@ -16485,7 +16502,7 @@
       <c r="AV587" s="10"/>
       <c r="AW587" s="10"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A588" s="11"/>
       <c r="B588" s="11"/>
       <c r="C588" s="10"/>
@@ -16511,7 +16528,7 @@
       <c r="AV588" s="10"/>
       <c r="AW588" s="10"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A589" s="11"/>
       <c r="B589" s="11"/>
       <c r="C589" s="10"/>
@@ -16537,7 +16554,7 @@
       <c r="AV589" s="10"/>
       <c r="AW589" s="10"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A590" s="11"/>
       <c r="B590" s="11"/>
       <c r="C590" s="10"/>
@@ -16563,7 +16580,7 @@
       <c r="AV590" s="10"/>
       <c r="AW590" s="10"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A591" s="11"/>
       <c r="B591" s="11"/>
       <c r="C591" s="10"/>
@@ -16589,7 +16606,7 @@
       <c r="AV591" s="10"/>
       <c r="AW591" s="10"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A592" s="11"/>
       <c r="B592" s="11"/>
       <c r="C592" s="10"/>
@@ -16615,7 +16632,7 @@
       <c r="AV592" s="10"/>
       <c r="AW592" s="10"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A593" s="11"/>
       <c r="B593" s="11"/>
       <c r="C593" s="10"/>
@@ -16641,7 +16658,7 @@
       <c r="AV593" s="10"/>
       <c r="AW593" s="10"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A594" s="11"/>
       <c r="B594" s="11"/>
       <c r="C594" s="10"/>
@@ -16667,7 +16684,7 @@
       <c r="AV594" s="10"/>
       <c r="AW594" s="10"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A595" s="11"/>
       <c r="B595" s="11"/>
       <c r="C595" s="10"/>
@@ -16693,7 +16710,7 @@
       <c r="AV595" s="10"/>
       <c r="AW595" s="10"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A596" s="11"/>
       <c r="B596" s="11"/>
       <c r="C596" s="10"/>
@@ -16719,7 +16736,7 @@
       <c r="AV596" s="10"/>
       <c r="AW596" s="10"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A597" s="11"/>
       <c r="B597" s="11"/>
       <c r="C597" s="10"/>
@@ -16745,7 +16762,7 @@
       <c r="AV597" s="10"/>
       <c r="AW597" s="10"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A598" s="11"/>
       <c r="B598" s="11"/>
       <c r="C598" s="10"/>
@@ -16771,7 +16788,7 @@
       <c r="AV598" s="10"/>
       <c r="AW598" s="10"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A599" s="11"/>
       <c r="B599" s="11"/>
       <c r="C599" s="10"/>
@@ -16797,7 +16814,7 @@
       <c r="AV599" s="10"/>
       <c r="AW599" s="10"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A600" s="11"/>
       <c r="B600" s="11"/>
       <c r="C600" s="10"/>
@@ -16823,7 +16840,7 @@
       <c r="AV600" s="10"/>
       <c r="AW600" s="10"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A601" s="11"/>
       <c r="B601" s="11"/>
       <c r="C601" s="10"/>
@@ -16849,7 +16866,7 @@
       <c r="AV601" s="10"/>
       <c r="AW601" s="10"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A602" s="11"/>
       <c r="B602" s="11"/>
       <c r="C602" s="10"/>
@@ -16875,7 +16892,7 @@
       <c r="AV602" s="10"/>
       <c r="AW602" s="10"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A603" s="11"/>
       <c r="B603" s="11"/>
       <c r="C603" s="10"/>
@@ -16901,7 +16918,7 @@
       <c r="AV603" s="10"/>
       <c r="AW603" s="10"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A604" s="11"/>
       <c r="B604" s="11"/>
       <c r="C604" s="10"/>
@@ -16927,7 +16944,7 @@
       <c r="AV604" s="10"/>
       <c r="AW604" s="10"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A605" s="11"/>
       <c r="B605" s="11"/>
       <c r="C605" s="10"/>
@@ -16953,7 +16970,7 @@
       <c r="AV605" s="10"/>
       <c r="AW605" s="10"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A606" s="11"/>
       <c r="B606" s="11"/>
       <c r="C606" s="10"/>
@@ -16979,7 +16996,7 @@
       <c r="AV606" s="10"/>
       <c r="AW606" s="10"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A607" s="11"/>
       <c r="B607" s="11"/>
       <c r="C607" s="10"/>
@@ -17005,7 +17022,7 @@
       <c r="AV607" s="10"/>
       <c r="AW607" s="10"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A608" s="11"/>
       <c r="B608" s="11"/>
       <c r="C608" s="10"/>
@@ -17031,7 +17048,7 @@
       <c r="AV608" s="10"/>
       <c r="AW608" s="10"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A609" s="11"/>
       <c r="B609" s="11"/>
       <c r="C609" s="10"/>
@@ -17057,7 +17074,7 @@
       <c r="AV609" s="10"/>
       <c r="AW609" s="10"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A610" s="11"/>
       <c r="B610" s="11"/>
       <c r="C610" s="10"/>
@@ -17083,7 +17100,7 @@
       <c r="AV610" s="10"/>
       <c r="AW610" s="10"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A611" s="11"/>
       <c r="B611" s="11"/>
       <c r="C611" s="10"/>
@@ -17109,7 +17126,7 @@
       <c r="AV611" s="10"/>
       <c r="AW611" s="10"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A612" s="11"/>
       <c r="B612" s="11"/>
       <c r="C612" s="10"/>
@@ -17135,7 +17152,7 @@
       <c r="AV612" s="10"/>
       <c r="AW612" s="10"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A613" s="11"/>
       <c r="B613" s="11"/>
       <c r="C613" s="10"/>
@@ -17161,7 +17178,7 @@
       <c r="AV613" s="10"/>
       <c r="AW613" s="10"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A614" s="11"/>
       <c r="B614" s="11"/>
       <c r="C614" s="10"/>
@@ -17187,7 +17204,7 @@
       <c r="AV614" s="10"/>
       <c r="AW614" s="10"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A615" s="11"/>
       <c r="B615" s="11"/>
       <c r="C615" s="10"/>
@@ -17213,7 +17230,7 @@
       <c r="AV615" s="10"/>
       <c r="AW615" s="10"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A616" s="11"/>
       <c r="B616" s="11"/>
       <c r="C616" s="10"/>
@@ -17239,7 +17256,7 @@
       <c r="AV616" s="10"/>
       <c r="AW616" s="10"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A617" s="11"/>
       <c r="B617" s="11"/>
       <c r="C617" s="10"/>
@@ -17265,7 +17282,7 @@
       <c r="AV617" s="10"/>
       <c r="AW617" s="10"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A618" s="11"/>
       <c r="B618" s="11"/>
       <c r="C618" s="10"/>
@@ -17291,7 +17308,7 @@
       <c r="AV618" s="10"/>
       <c r="AW618" s="10"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A619" s="11"/>
       <c r="B619" s="11"/>
       <c r="C619" s="10"/>
@@ -17317,7 +17334,7 @@
       <c r="AV619" s="10"/>
       <c r="AW619" s="10"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A620" s="11"/>
       <c r="B620" s="11"/>
       <c r="C620" s="10"/>
@@ -17343,7 +17360,7 @@
       <c r="AV620" s="10"/>
       <c r="AW620" s="10"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A621" s="11"/>
       <c r="B621" s="11"/>
       <c r="C621" s="10"/>
@@ -17369,7 +17386,7 @@
       <c r="AV621" s="10"/>
       <c r="AW621" s="10"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A622" s="11"/>
       <c r="B622" s="11"/>
       <c r="C622" s="10"/>
@@ -17395,7 +17412,7 @@
       <c r="AV622" s="10"/>
       <c r="AW622" s="10"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A623" s="11"/>
       <c r="B623" s="11"/>
       <c r="C623" s="10"/>
@@ -17421,7 +17438,7 @@
       <c r="AV623" s="10"/>
       <c r="AW623" s="10"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A624" s="11"/>
       <c r="B624" s="11"/>
       <c r="C624" s="10"/>
@@ -17447,7 +17464,7 @@
       <c r="AV624" s="10"/>
       <c r="AW624" s="10"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A625" s="11"/>
       <c r="B625" s="11"/>
       <c r="C625" s="10"/>
@@ -17473,7 +17490,7 @@
       <c r="AV625" s="10"/>
       <c r="AW625" s="10"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A626" s="11"/>
       <c r="B626" s="11"/>
       <c r="C626" s="10"/>
@@ -17499,7 +17516,7 @@
       <c r="AV626" s="10"/>
       <c r="AW626" s="10"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A627" s="11"/>
       <c r="B627" s="11"/>
       <c r="C627" s="10"/>
@@ -17525,7 +17542,7 @@
       <c r="AV627" s="10"/>
       <c r="AW627" s="10"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A628" s="11"/>
       <c r="B628" s="11"/>
       <c r="C628" s="10"/>
@@ -17551,7 +17568,7 @@
       <c r="AV628" s="10"/>
       <c r="AW628" s="10"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A629" s="11"/>
       <c r="B629" s="11"/>
       <c r="C629" s="10"/>
@@ -17577,7 +17594,7 @@
       <c r="AV629" s="10"/>
       <c r="AW629" s="10"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A630" s="11"/>
       <c r="B630" s="11"/>
       <c r="C630" s="10"/>
@@ -17603,7 +17620,7 @@
       <c r="AV630" s="10"/>
       <c r="AW630" s="10"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A631" s="11"/>
       <c r="B631" s="11"/>
       <c r="C631" s="10"/>
@@ -17629,7 +17646,7 @@
       <c r="AV631" s="10"/>
       <c r="AW631" s="10"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A632" s="11"/>
       <c r="B632" s="11"/>
       <c r="C632" s="10"/>
@@ -17655,7 +17672,7 @@
       <c r="AV632" s="10"/>
       <c r="AW632" s="10"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A633" s="11"/>
       <c r="B633" s="11"/>
       <c r="C633" s="10"/>
@@ -17681,7 +17698,7 @@
       <c r="AV633" s="10"/>
       <c r="AW633" s="10"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A634" s="11"/>
       <c r="B634" s="11"/>
       <c r="C634" s="10"/>
@@ -17707,7 +17724,7 @@
       <c r="AV634" s="10"/>
       <c r="AW634" s="10"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A635" s="11"/>
       <c r="B635" s="11"/>
       <c r="C635" s="10"/>
@@ -17733,7 +17750,7 @@
       <c r="AV635" s="10"/>
       <c r="AW635" s="10"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A636" s="11"/>
       <c r="B636" s="11"/>
       <c r="C636" s="10"/>
@@ -17759,7 +17776,7 @@
       <c r="AV636" s="10"/>
       <c r="AW636" s="10"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A637" s="11"/>
       <c r="B637" s="11"/>
       <c r="C637" s="10"/>
@@ -17785,7 +17802,7 @@
       <c r="AV637" s="10"/>
       <c r="AW637" s="10"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A638" s="11"/>
       <c r="B638" s="11"/>
       <c r="C638" s="10"/>
@@ -17811,7 +17828,7 @@
       <c r="AV638" s="10"/>
       <c r="AW638" s="10"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A639" s="11"/>
       <c r="B639" s="11"/>
       <c r="C639" s="10"/>
@@ -17837,7 +17854,7 @@
       <c r="AV639" s="10"/>
       <c r="AW639" s="10"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A640" s="11"/>
       <c r="B640" s="11"/>
       <c r="C640" s="10"/>
@@ -17863,7 +17880,7 @@
       <c r="AV640" s="10"/>
       <c r="AW640" s="10"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A641" s="11"/>
       <c r="B641" s="11"/>
       <c r="C641" s="10"/>
@@ -17889,7 +17906,7 @@
       <c r="AV641" s="10"/>
       <c r="AW641" s="10"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A642" s="11"/>
       <c r="B642" s="11"/>
       <c r="C642" s="10"/>
@@ -17915,7 +17932,7 @@
       <c r="AV642" s="10"/>
       <c r="AW642" s="10"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A643" s="11"/>
       <c r="B643" s="11"/>
       <c r="C643" s="10"/>
@@ -17941,7 +17958,7 @@
       <c r="AV643" s="10"/>
       <c r="AW643" s="10"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A644" s="11"/>
       <c r="B644" s="11"/>
       <c r="C644" s="10"/>
@@ -17967,7 +17984,7 @@
       <c r="AV644" s="10"/>
       <c r="AW644" s="10"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A645" s="11"/>
       <c r="B645" s="11"/>
       <c r="C645" s="10"/>
@@ -17993,7 +18010,7 @@
       <c r="AV645" s="10"/>
       <c r="AW645" s="10"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A646" s="11"/>
       <c r="B646" s="11"/>
       <c r="C646" s="10"/>
@@ -18019,7 +18036,7 @@
       <c r="AV646" s="10"/>
       <c r="AW646" s="10"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A647" s="11"/>
       <c r="B647" s="11"/>
       <c r="C647" s="10"/>
@@ -18045,7 +18062,7 @@
       <c r="AV647" s="10"/>
       <c r="AW647" s="10"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A648" s="11"/>
       <c r="B648" s="11"/>
       <c r="C648" s="10"/>
@@ -18071,7 +18088,7 @@
       <c r="AV648" s="10"/>
       <c r="AW648" s="10"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A649" s="11"/>
       <c r="B649" s="11"/>
       <c r="C649" s="10"/>
@@ -18097,7 +18114,7 @@
       <c r="AV649" s="10"/>
       <c r="AW649" s="10"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A650" s="11"/>
       <c r="B650" s="11"/>
       <c r="C650" s="10"/>
@@ -18123,7 +18140,7 @@
       <c r="AV650" s="10"/>
       <c r="AW650" s="10"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A651" s="11"/>
       <c r="B651" s="11"/>
       <c r="C651" s="10"/>
@@ -18149,7 +18166,7 @@
       <c r="AV651" s="10"/>
       <c r="AW651" s="10"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A652" s="11"/>
       <c r="B652" s="11"/>
       <c r="C652" s="10"/>
@@ -18175,7 +18192,7 @@
       <c r="AV652" s="10"/>
       <c r="AW652" s="10"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A653" s="11"/>
       <c r="B653" s="11"/>
       <c r="C653" s="10"/>
@@ -18201,7 +18218,7 @@
       <c r="AV653" s="10"/>
       <c r="AW653" s="10"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A654" s="11"/>
       <c r="B654" s="11"/>
       <c r="C654" s="10"/>
@@ -18227,7 +18244,7 @@
       <c r="AV654" s="10"/>
       <c r="AW654" s="10"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A655" s="11"/>
       <c r="B655" s="11"/>
       <c r="C655" s="10"/>
@@ -18253,7 +18270,7 @@
       <c r="AV655" s="10"/>
       <c r="AW655" s="10"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A656" s="11"/>
       <c r="B656" s="11"/>
       <c r="C656" s="10"/>
@@ -18279,7 +18296,7 @@
       <c r="AV656" s="10"/>
       <c r="AW656" s="10"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A657" s="11"/>
       <c r="B657" s="11"/>
       <c r="C657" s="10"/>
@@ -18305,7 +18322,7 @@
       <c r="AV657" s="10"/>
       <c r="AW657" s="10"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A658" s="11"/>
       <c r="B658" s="11"/>
       <c r="C658" s="10"/>
@@ -18331,7 +18348,7 @@
       <c r="AV658" s="10"/>
       <c r="AW658" s="10"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A659" s="11"/>
       <c r="B659" s="11"/>
       <c r="C659" s="10"/>
@@ -18357,7 +18374,7 @@
       <c r="AV659" s="10"/>
       <c r="AW659" s="10"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A660" s="11"/>
       <c r="B660" s="11"/>
       <c r="C660" s="10"/>
@@ -18383,7 +18400,7 @@
       <c r="AV660" s="10"/>
       <c r="AW660" s="10"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A661" s="11"/>
       <c r="B661" s="11"/>
       <c r="C661" s="10"/>
@@ -18409,7 +18426,7 @@
       <c r="AV661" s="10"/>
       <c r="AW661" s="10"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A662" s="11"/>
       <c r="B662" s="11"/>
       <c r="C662" s="10"/>
@@ -18435,7 +18452,7 @@
       <c r="AV662" s="10"/>
       <c r="AW662" s="10"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A663" s="11"/>
       <c r="B663" s="11"/>
       <c r="C663" s="10"/>
@@ -18461,7 +18478,7 @@
       <c r="AV663" s="10"/>
       <c r="AW663" s="10"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A664" s="11"/>
       <c r="B664" s="11"/>
       <c r="C664" s="10"/>
@@ -18487,7 +18504,7 @@
       <c r="AV664" s="10"/>
       <c r="AW664" s="10"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A665" s="11"/>
       <c r="B665" s="11"/>
       <c r="C665" s="10"/>
@@ -18513,7 +18530,7 @@
       <c r="AV665" s="10"/>
       <c r="AW665" s="10"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A666" s="11"/>
       <c r="B666" s="11"/>
       <c r="C666" s="10"/>
@@ -18539,7 +18556,7 @@
       <c r="AV666" s="10"/>
       <c r="AW666" s="10"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A667" s="11"/>
       <c r="B667" s="11"/>
       <c r="C667" s="10"/>
@@ -18565,7 +18582,7 @@
       <c r="AV667" s="10"/>
       <c r="AW667" s="10"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A668" s="11"/>
       <c r="B668" s="11"/>
       <c r="C668" s="10"/>
@@ -18591,7 +18608,7 @@
       <c r="AV668" s="10"/>
       <c r="AW668" s="10"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A669" s="11"/>
       <c r="B669" s="11"/>
       <c r="C669" s="10"/>
@@ -18617,7 +18634,7 @@
       <c r="AV669" s="10"/>
       <c r="AW669" s="10"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A670" s="11"/>
       <c r="B670" s="11"/>
       <c r="C670" s="10"/>
@@ -18643,7 +18660,7 @@
       <c r="AV670" s="10"/>
       <c r="AW670" s="10"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A671" s="11"/>
       <c r="B671" s="11"/>
       <c r="C671" s="10"/>
@@ -18669,7 +18686,7 @@
       <c r="AV671" s="10"/>
       <c r="AW671" s="10"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A672" s="11"/>
       <c r="B672" s="11"/>
       <c r="C672" s="10"/>
@@ -18695,7 +18712,7 @@
       <c r="AV672" s="10"/>
       <c r="AW672" s="10"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A673" s="11"/>
       <c r="B673" s="11"/>
       <c r="C673" s="10"/>
@@ -18721,7 +18738,7 @@
       <c r="AV673" s="10"/>
       <c r="AW673" s="10"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A674" s="11"/>
       <c r="B674" s="11"/>
       <c r="C674" s="10"/>
@@ -18747,7 +18764,7 @@
       <c r="AV674" s="10"/>
       <c r="AW674" s="10"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A675" s="11"/>
       <c r="B675" s="11"/>
       <c r="C675" s="10"/>
@@ -18773,7 +18790,7 @@
       <c r="AV675" s="10"/>
       <c r="AW675" s="10"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A676" s="11"/>
       <c r="B676" s="11"/>
       <c r="C676" s="10"/>
@@ -18799,7 +18816,7 @@
       <c r="AV676" s="10"/>
       <c r="AW676" s="10"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A677" s="11"/>
       <c r="B677" s="11"/>
       <c r="C677" s="10"/>
@@ -18825,7 +18842,7 @@
       <c r="AV677" s="10"/>
       <c r="AW677" s="10"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A678" s="11"/>
       <c r="B678" s="11"/>
       <c r="C678" s="10"/>
@@ -18851,7 +18868,7 @@
       <c r="AV678" s="10"/>
       <c r="AW678" s="10"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A679" s="11"/>
       <c r="B679" s="11"/>
       <c r="C679" s="10"/>
@@ -18877,7 +18894,7 @@
       <c r="AV679" s="10"/>
       <c r="AW679" s="10"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A680" s="11"/>
       <c r="B680" s="11"/>
       <c r="C680" s="10"/>
@@ -18903,7 +18920,7 @@
       <c r="AV680" s="10"/>
       <c r="AW680" s="10"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A681" s="11"/>
       <c r="B681" s="11"/>
       <c r="C681" s="10"/>
@@ -18929,7 +18946,7 @@
       <c r="AV681" s="10"/>
       <c r="AW681" s="10"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A682" s="11"/>
       <c r="B682" s="11"/>
       <c r="C682" s="10"/>
@@ -18955,7 +18972,7 @@
       <c r="AV682" s="10"/>
       <c r="AW682" s="10"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A683" s="11"/>
       <c r="B683" s="11"/>
       <c r="C683" s="10"/>
@@ -18981,7 +18998,7 @@
       <c r="AV683" s="10"/>
       <c r="AW683" s="10"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A684" s="11"/>
       <c r="B684" s="11"/>
       <c r="C684" s="10"/>
@@ -19007,7 +19024,7 @@
       <c r="AV684" s="10"/>
       <c r="AW684" s="10"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A685" s="11"/>
       <c r="B685" s="11"/>
       <c r="C685" s="10"/>
@@ -19033,7 +19050,7 @@
       <c r="AV685" s="10"/>
       <c r="AW685" s="10"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A686" s="11"/>
       <c r="B686" s="11"/>
       <c r="C686" s="10"/>
@@ -19059,7 +19076,7 @@
       <c r="AV686" s="10"/>
       <c r="AW686" s="10"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A687" s="11"/>
       <c r="B687" s="11"/>
       <c r="C687" s="10"/>
@@ -19085,7 +19102,7 @@
       <c r="AV687" s="10"/>
       <c r="AW687" s="10"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A688" s="11"/>
       <c r="B688" s="11"/>
       <c r="C688" s="10"/>
@@ -19111,7 +19128,7 @@
       <c r="AV688" s="10"/>
       <c r="AW688" s="10"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A689" s="11"/>
       <c r="B689" s="11"/>
       <c r="C689" s="10"/>
@@ -19137,7 +19154,7 @@
       <c r="AV689" s="10"/>
       <c r="AW689" s="10"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A690" s="11"/>
       <c r="B690" s="11"/>
       <c r="C690" s="10"/>
@@ -19163,7 +19180,7 @@
       <c r="AV690" s="10"/>
       <c r="AW690" s="10"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A691" s="11"/>
       <c r="B691" s="11"/>
       <c r="C691" s="10"/>
@@ -19189,7 +19206,7 @@
       <c r="AV691" s="10"/>
       <c r="AW691" s="10"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A692" s="11"/>
       <c r="B692" s="11"/>
       <c r="C692" s="10"/>
@@ -19215,7 +19232,7 @@
       <c r="AV692" s="10"/>
       <c r="AW692" s="10"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A693" s="11"/>
       <c r="B693" s="11"/>
       <c r="C693" s="10"/>
@@ -19241,7 +19258,7 @@
       <c r="AV693" s="10"/>
       <c r="AW693" s="10"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A694" s="11"/>
       <c r="B694" s="11"/>
       <c r="C694" s="10"/>
@@ -19267,7 +19284,7 @@
       <c r="AV694" s="10"/>
       <c r="AW694" s="10"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A695" s="11"/>
       <c r="B695" s="11"/>
       <c r="C695" s="10"/>
@@ -19293,7 +19310,7 @@
       <c r="AV695" s="10"/>
       <c r="AW695" s="10"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A696" s="11"/>
       <c r="B696" s="11"/>
       <c r="C696" s="10"/>
@@ -19319,7 +19336,7 @@
       <c r="AV696" s="10"/>
       <c r="AW696" s="10"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A697" s="11"/>
       <c r="B697" s="11"/>
       <c r="C697" s="10"/>
@@ -19345,7 +19362,7 @@
       <c r="AV697" s="10"/>
       <c r="AW697" s="10"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A698" s="11"/>
       <c r="B698" s="11"/>
       <c r="C698" s="10"/>
@@ -19371,7 +19388,7 @@
       <c r="AV698" s="10"/>
       <c r="AW698" s="10"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A699" s="11"/>
       <c r="B699" s="11"/>
       <c r="C699" s="10"/>
@@ -19397,7 +19414,7 @@
       <c r="AV699" s="10"/>
       <c r="AW699" s="10"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A700" s="11"/>
       <c r="B700" s="11"/>
       <c r="C700" s="10"/>
@@ -19423,7 +19440,7 @@
       <c r="AV700" s="10"/>
       <c r="AW700" s="10"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A701" s="11"/>
       <c r="B701" s="11"/>
       <c r="C701" s="10"/>
@@ -19449,7 +19466,7 @@
       <c r="AV701" s="10"/>
       <c r="AW701" s="10"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A702" s="11"/>
       <c r="B702" s="11"/>
       <c r="C702" s="10"/>
@@ -19475,7 +19492,7 @@
       <c r="AV702" s="10"/>
       <c r="AW702" s="10"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A703" s="11"/>
       <c r="B703" s="11"/>
       <c r="C703" s="10"/>
@@ -19501,7 +19518,7 @@
       <c r="AV703" s="10"/>
       <c r="AW703" s="10"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A704" s="11"/>
       <c r="B704" s="11"/>
       <c r="C704" s="10"/>
@@ -19527,7 +19544,7 @@
       <c r="AV704" s="10"/>
       <c r="AW704" s="10"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A705" s="11"/>
       <c r="B705" s="11"/>
       <c r="C705" s="10"/>
@@ -19553,7 +19570,7 @@
       <c r="AV705" s="10"/>
       <c r="AW705" s="10"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A706" s="11"/>
       <c r="B706" s="11"/>
       <c r="C706" s="10"/>
@@ -19579,7 +19596,7 @@
       <c r="AV706" s="10"/>
       <c r="AW706" s="10"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A707" s="11"/>
       <c r="B707" s="11"/>
       <c r="C707" s="10"/>
@@ -19605,7 +19622,7 @@
       <c r="AV707" s="10"/>
       <c r="AW707" s="10"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A708" s="11"/>
       <c r="B708" s="11"/>
       <c r="C708" s="10"/>
@@ -19631,7 +19648,7 @@
       <c r="AV708" s="10"/>
       <c r="AW708" s="10"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A709" s="11"/>
       <c r="B709" s="11"/>
       <c r="C709" s="10"/>
@@ -19657,7 +19674,7 @@
       <c r="AV709" s="10"/>
       <c r="AW709" s="10"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A710" s="11"/>
       <c r="B710" s="11"/>
       <c r="C710" s="10"/>
@@ -19683,7 +19700,7 @@
       <c r="AV710" s="10"/>
       <c r="AW710" s="10"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A711" s="11"/>
       <c r="B711" s="11"/>
       <c r="C711" s="10"/>
@@ -19709,7 +19726,7 @@
       <c r="AV711" s="10"/>
       <c r="AW711" s="10"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A712" s="11"/>
       <c r="B712" s="11"/>
       <c r="C712" s="10"/>
@@ -19735,7 +19752,7 @@
       <c r="AV712" s="10"/>
       <c r="AW712" s="10"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A713" s="11"/>
       <c r="B713" s="11"/>
       <c r="C713" s="10"/>
@@ -19761,7 +19778,7 @@
       <c r="AV713" s="10"/>
       <c r="AW713" s="10"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A714" s="11"/>
       <c r="B714" s="11"/>
       <c r="C714" s="10"/>
@@ -19787,7 +19804,7 @@
       <c r="AV714" s="10"/>
       <c r="AW714" s="10"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A715" s="11"/>
       <c r="B715" s="11"/>
       <c r="C715" s="10"/>
@@ -19813,7 +19830,7 @@
       <c r="AV715" s="10"/>
       <c r="AW715" s="10"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A716" s="11"/>
       <c r="B716" s="11"/>
       <c r="C716" s="10"/>
@@ -19839,7 +19856,7 @@
       <c r="AV716" s="10"/>
       <c r="AW716" s="10"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A717" s="11"/>
       <c r="B717" s="11"/>
       <c r="C717" s="10"/>
@@ -19865,7 +19882,7 @@
       <c r="AV717" s="10"/>
       <c r="AW717" s="10"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A718" s="11"/>
       <c r="B718" s="11"/>
       <c r="C718" s="10"/>
@@ -19891,7 +19908,7 @@
       <c r="AV718" s="10"/>
       <c r="AW718" s="10"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A719" s="11"/>
       <c r="B719" s="11"/>
       <c r="C719" s="10"/>
@@ -19917,7 +19934,7 @@
       <c r="AV719" s="10"/>
       <c r="AW719" s="10"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A720" s="11"/>
       <c r="B720" s="11"/>
       <c r="C720" s="10"/>
@@ -19943,7 +19960,7 @@
       <c r="AV720" s="10"/>
       <c r="AW720" s="10"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A721" s="11"/>
       <c r="B721" s="11"/>
       <c r="C721" s="10"/>
@@ -19969,7 +19986,7 @@
       <c r="AV721" s="10"/>
       <c r="AW721" s="10"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A722" s="11"/>
       <c r="B722" s="11"/>
       <c r="C722" s="10"/>
@@ -19995,7 +20012,7 @@
       <c r="AV722" s="10"/>
       <c r="AW722" s="10"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A723" s="11"/>
       <c r="B723" s="11"/>
       <c r="C723" s="10"/>
@@ -20021,7 +20038,7 @@
       <c r="AV723" s="10"/>
       <c r="AW723" s="10"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A724" s="11"/>
       <c r="B724" s="11"/>
       <c r="C724" s="10"/>
@@ -20047,7 +20064,7 @@
       <c r="AV724" s="10"/>
       <c r="AW724" s="10"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A725" s="11"/>
       <c r="B725" s="11"/>
       <c r="C725" s="10"/>
@@ -20073,7 +20090,7 @@
       <c r="AV725" s="10"/>
       <c r="AW725" s="10"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A726" s="11"/>
       <c r="B726" s="11"/>
       <c r="C726" s="10"/>
@@ -20099,7 +20116,7 @@
       <c r="AV726" s="10"/>
       <c r="AW726" s="10"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A727" s="11"/>
       <c r="B727" s="11"/>
       <c r="C727" s="10"/>
@@ -20125,7 +20142,7 @@
       <c r="AV727" s="10"/>
       <c r="AW727" s="10"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A728" s="11"/>
       <c r="B728" s="11"/>
       <c r="C728" s="10"/>
@@ -20151,7 +20168,7 @@
       <c r="AV728" s="10"/>
       <c r="AW728" s="10"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A729" s="11"/>
       <c r="B729" s="11"/>
       <c r="C729" s="10"/>
@@ -20177,7 +20194,7 @@
       <c r="AV729" s="10"/>
       <c r="AW729" s="10"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A730" s="11"/>
       <c r="B730" s="11"/>
       <c r="C730" s="10"/>
@@ -20203,7 +20220,7 @@
       <c r="AV730" s="10"/>
       <c r="AW730" s="10"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A731" s="11"/>
       <c r="B731" s="11"/>
       <c r="C731" s="10"/>
@@ -20229,7 +20246,7 @@
       <c r="AV731" s="10"/>
       <c r="AW731" s="10"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A732" s="11"/>
       <c r="B732" s="11"/>
       <c r="C732" s="10"/>
@@ -20255,7 +20272,7 @@
       <c r="AV732" s="10"/>
       <c r="AW732" s="10"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A733" s="11"/>
       <c r="B733" s="11"/>
       <c r="C733" s="10"/>
@@ -20281,7 +20298,7 @@
       <c r="AV733" s="10"/>
       <c r="AW733" s="10"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A734" s="11"/>
       <c r="B734" s="11"/>
       <c r="C734" s="10"/>
@@ -20307,7 +20324,7 @@
       <c r="AV734" s="10"/>
       <c r="AW734" s="10"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A735" s="11"/>
       <c r="B735" s="11"/>
       <c r="C735" s="10"/>
@@ -20333,7 +20350,7 @@
       <c r="AV735" s="10"/>
       <c r="AW735" s="10"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A736" s="11"/>
       <c r="B736" s="11"/>
       <c r="C736" s="10"/>
@@ -20359,7 +20376,7 @@
       <c r="AV736" s="10"/>
       <c r="AW736" s="10"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A737" s="11"/>
       <c r="B737" s="11"/>
       <c r="C737" s="10"/>
@@ -20385,7 +20402,7 @@
       <c r="AV737" s="10"/>
       <c r="AW737" s="10"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A738" s="11"/>
       <c r="B738" s="11"/>
       <c r="C738" s="10"/>
@@ -20411,7 +20428,7 @@
       <c r="AV738" s="10"/>
       <c r="AW738" s="10"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A739" s="11"/>
       <c r="B739" s="11"/>
       <c r="C739" s="10"/>
@@ -20437,7 +20454,7 @@
       <c r="AV739" s="10"/>
       <c r="AW739" s="10"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A740" s="11"/>
       <c r="B740" s="11"/>
       <c r="C740" s="10"/>
@@ -20463,7 +20480,7 @@
       <c r="AV740" s="10"/>
       <c r="AW740" s="10"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A741" s="11"/>
       <c r="B741" s="11"/>
       <c r="C741" s="10"/>
@@ -20489,7 +20506,7 @@
       <c r="AV741" s="10"/>
       <c r="AW741" s="10"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A742" s="11"/>
       <c r="B742" s="11"/>
       <c r="C742" s="10"/>
@@ -20515,7 +20532,7 @@
       <c r="AV742" s="10"/>
       <c r="AW742" s="10"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A743" s="11"/>
       <c r="B743" s="11"/>
       <c r="C743" s="10"/>
@@ -20541,7 +20558,7 @@
       <c r="AV743" s="10"/>
       <c r="AW743" s="10"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A744" s="11"/>
       <c r="B744" s="11"/>
       <c r="C744" s="10"/>
@@ -20567,7 +20584,7 @@
       <c r="AV744" s="10"/>
       <c r="AW744" s="10"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A745" s="11"/>
       <c r="B745" s="11"/>
       <c r="C745" s="10"/>
@@ -20593,7 +20610,7 @@
       <c r="AV745" s="10"/>
       <c r="AW745" s="10"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A746" s="11"/>
       <c r="B746" s="11"/>
       <c r="C746" s="10"/>
@@ -20619,7 +20636,7 @@
       <c r="AV746" s="10"/>
       <c r="AW746" s="10"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A747" s="11"/>
       <c r="B747" s="11"/>
       <c r="C747" s="10"/>
@@ -20645,7 +20662,7 @@
       <c r="AV747" s="10"/>
       <c r="AW747" s="10"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A748" s="11"/>
       <c r="B748" s="11"/>
       <c r="C748" s="10"/>
@@ -20671,7 +20688,7 @@
       <c r="AV748" s="10"/>
       <c r="AW748" s="10"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A749" s="11"/>
       <c r="B749" s="11"/>
       <c r="C749" s="10"/>
@@ -20697,7 +20714,7 @@
       <c r="AV749" s="10"/>
       <c r="AW749" s="10"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A750" s="11"/>
       <c r="B750" s="11"/>
       <c r="C750" s="10"/>
@@ -20723,7 +20740,7 @@
       <c r="AV750" s="10"/>
       <c r="AW750" s="10"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A751" s="11"/>
       <c r="B751" s="11"/>
       <c r="C751" s="10"/>
@@ -20749,7 +20766,7 @@
       <c r="AV751" s="10"/>
       <c r="AW751" s="10"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A752" s="11"/>
       <c r="B752" s="11"/>
       <c r="C752" s="10"/>
@@ -20775,7 +20792,7 @@
       <c r="AV752" s="10"/>
       <c r="AW752" s="10"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A753" s="11"/>
       <c r="B753" s="11"/>
       <c r="C753" s="10"/>
@@ -20801,7 +20818,7 @@
       <c r="AV753" s="10"/>
       <c r="AW753" s="10"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A754" s="11"/>
       <c r="B754" s="11"/>
       <c r="C754" s="10"/>
@@ -20827,7 +20844,7 @@
       <c r="AV754" s="10"/>
       <c r="AW754" s="10"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A755" s="11"/>
       <c r="B755" s="11"/>
       <c r="C755" s="10"/>
@@ -20853,7 +20870,7 @@
       <c r="AV755" s="10"/>
       <c r="AW755" s="10"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A756" s="11"/>
       <c r="B756" s="11"/>
       <c r="C756" s="10"/>
@@ -20879,7 +20896,7 @@
       <c r="AV756" s="10"/>
       <c r="AW756" s="10"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A757" s="11"/>
       <c r="B757" s="11"/>
       <c r="C757" s="10"/>
@@ -20905,7 +20922,7 @@
       <c r="AV757" s="10"/>
       <c r="AW757" s="10"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A758" s="11"/>
       <c r="B758" s="11"/>
       <c r="C758" s="10"/>
@@ -20931,7 +20948,7 @@
       <c r="AV758" s="10"/>
       <c r="AW758" s="10"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A759" s="11"/>
       <c r="B759" s="11"/>
       <c r="C759" s="10"/>
@@ -20957,7 +20974,7 @@
       <c r="AV759" s="10"/>
       <c r="AW759" s="10"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A760" s="11"/>
       <c r="B760" s="11"/>
       <c r="C760" s="10"/>
@@ -20983,7 +21000,7 @@
       <c r="AV760" s="10"/>
       <c r="AW760" s="10"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A761" s="11"/>
       <c r="B761" s="11"/>
       <c r="C761" s="10"/>
@@ -21009,7 +21026,7 @@
       <c r="AV761" s="10"/>
       <c r="AW761" s="10"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A762" s="11"/>
       <c r="B762" s="11"/>
       <c r="C762" s="10"/>
@@ -21035,7 +21052,7 @@
       <c r="AV762" s="10"/>
       <c r="AW762" s="10"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A763" s="11"/>
       <c r="B763" s="11"/>
       <c r="C763" s="10"/>
@@ -21061,7 +21078,7 @@
       <c r="AV763" s="10"/>
       <c r="AW763" s="10"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A764" s="11"/>
       <c r="B764" s="11"/>
       <c r="C764" s="10"/>
@@ -21087,7 +21104,7 @@
       <c r="AV764" s="10"/>
       <c r="AW764" s="10"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A765" s="11"/>
       <c r="B765" s="11"/>
       <c r="C765" s="10"/>
@@ -21113,7 +21130,7 @@
       <c r="AV765" s="10"/>
       <c r="AW765" s="10"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A766" s="11"/>
       <c r="B766" s="11"/>
       <c r="C766" s="10"/>
@@ -21139,7 +21156,7 @@
       <c r="AV766" s="10"/>
       <c r="AW766" s="10"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A767" s="11"/>
       <c r="B767" s="11"/>
       <c r="C767" s="10"/>
@@ -21165,7 +21182,7 @@
       <c r="AV767" s="10"/>
       <c r="AW767" s="10"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A768" s="11"/>
       <c r="B768" s="11"/>
       <c r="C768" s="10"/>
@@ -21191,7 +21208,7 @@
       <c r="AV768" s="10"/>
       <c r="AW768" s="10"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A769" s="11"/>
       <c r="B769" s="11"/>
       <c r="C769" s="10"/>
@@ -21217,7 +21234,7 @@
       <c r="AV769" s="10"/>
       <c r="AW769" s="10"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A770" s="11"/>
       <c r="B770" s="11"/>
       <c r="C770" s="10"/>
@@ -21243,7 +21260,7 @@
       <c r="AV770" s="10"/>
       <c r="AW770" s="10"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A771" s="11"/>
       <c r="B771" s="11"/>
       <c r="C771" s="10"/>
@@ -21269,7 +21286,7 @@
       <c r="AV771" s="10"/>
       <c r="AW771" s="10"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A772" s="11"/>
       <c r="B772" s="11"/>
       <c r="C772" s="10"/>
@@ -21295,7 +21312,7 @@
       <c r="AV772" s="10"/>
       <c r="AW772" s="10"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A773" s="11"/>
       <c r="B773" s="11"/>
       <c r="C773" s="10"/>
@@ -21321,7 +21338,7 @@
       <c r="AV773" s="10"/>
       <c r="AW773" s="10"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A774" s="11"/>
       <c r="B774" s="11"/>
       <c r="C774" s="10"/>
@@ -21347,7 +21364,7 @@
       <c r="AV774" s="10"/>
       <c r="AW774" s="10"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A775" s="11"/>
       <c r="B775" s="11"/>
       <c r="C775" s="10"/>
@@ -21373,7 +21390,7 @@
       <c r="AV775" s="10"/>
       <c r="AW775" s="10"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A776" s="11"/>
       <c r="B776" s="11"/>
       <c r="C776" s="10"/>
@@ -21399,7 +21416,7 @@
       <c r="AV776" s="10"/>
       <c r="AW776" s="10"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A777" s="11"/>
       <c r="B777" s="11"/>
       <c r="C777" s="10"/>
@@ -21425,7 +21442,7 @@
       <c r="AV777" s="10"/>
       <c r="AW777" s="10"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A778" s="11"/>
       <c r="B778" s="11"/>
       <c r="C778" s="10"/>
@@ -21451,7 +21468,7 @@
       <c r="AV778" s="10"/>
       <c r="AW778" s="10"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A779" s="11"/>
       <c r="B779" s="11"/>
       <c r="C779" s="10"/>
@@ -21477,7 +21494,7 @@
       <c r="AV779" s="10"/>
       <c r="AW779" s="10"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A780" s="11"/>
       <c r="B780" s="11"/>
       <c r="C780" s="10"/>
@@ -21503,7 +21520,7 @@
       <c r="AV780" s="10"/>
       <c r="AW780" s="10"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A781" s="11"/>
       <c r="B781" s="11"/>
       <c r="C781" s="10"/>
@@ -21529,7 +21546,7 @@
       <c r="AV781" s="10"/>
       <c r="AW781" s="10"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A782" s="11"/>
       <c r="B782" s="11"/>
       <c r="C782" s="10"/>
@@ -21555,7 +21572,7 @@
       <c r="AV782" s="10"/>
       <c r="AW782" s="10"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A783" s="11"/>
       <c r="B783" s="11"/>
       <c r="C783" s="10"/>
@@ -21581,7 +21598,7 @@
       <c r="AV783" s="10"/>
       <c r="AW783" s="10"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A784" s="11"/>
       <c r="B784" s="11"/>
       <c r="C784" s="10"/>
@@ -21607,7 +21624,7 @@
       <c r="AV784" s="10"/>
       <c r="AW784" s="10"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A785" s="11"/>
       <c r="B785" s="11"/>
       <c r="C785" s="10"/>
@@ -21633,7 +21650,7 @@
       <c r="AV785" s="10"/>
       <c r="AW785" s="10"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A786" s="11"/>
       <c r="B786" s="11"/>
       <c r="C786" s="10"/>
@@ -21659,7 +21676,7 @@
       <c r="AV786" s="10"/>
       <c r="AW786" s="10"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A787" s="11"/>
       <c r="B787" s="11"/>
       <c r="C787" s="10"/>
@@ -21685,7 +21702,7 @@
       <c r="AV787" s="10"/>
       <c r="AW787" s="10"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A788" s="11"/>
       <c r="B788" s="11"/>
       <c r="C788" s="10"/>
@@ -21711,7 +21728,7 @@
       <c r="AV788" s="10"/>
       <c r="AW788" s="10"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A789" s="11"/>
       <c r="B789" s="11"/>
       <c r="C789" s="10"/>
@@ -21737,7 +21754,7 @@
       <c r="AV789" s="10"/>
       <c r="AW789" s="10"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A790" s="11"/>
       <c r="B790" s="11"/>
       <c r="C790" s="10"/>
@@ -21763,7 +21780,7 @@
       <c r="AV790" s="10"/>
       <c r="AW790" s="10"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A791" s="11"/>
       <c r="B791" s="11"/>
       <c r="C791" s="10"/>
@@ -21789,7 +21806,7 @@
       <c r="AV791" s="10"/>
       <c r="AW791" s="10"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A792" s="11"/>
       <c r="B792" s="11"/>
       <c r="C792" s="10"/>
@@ -21815,7 +21832,7 @@
       <c r="AV792" s="10"/>
       <c r="AW792" s="10"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A793" s="11"/>
       <c r="B793" s="11"/>
       <c r="C793" s="10"/>
@@ -21841,7 +21858,7 @@
       <c r="AV793" s="10"/>
       <c r="AW793" s="10"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A794" s="11"/>
       <c r="B794" s="11"/>
       <c r="C794" s="10"/>
@@ -21867,7 +21884,7 @@
       <c r="AV794" s="10"/>
       <c r="AW794" s="10"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A795" s="11"/>
       <c r="B795" s="11"/>
       <c r="C795" s="10"/>
@@ -21893,7 +21910,7 @@
       <c r="AV795" s="10"/>
       <c r="AW795" s="10"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A796" s="11"/>
       <c r="B796" s="11"/>
       <c r="C796" s="10"/>
@@ -21919,7 +21936,7 @@
       <c r="AV796" s="10"/>
       <c r="AW796" s="10"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A797" s="11"/>
       <c r="B797" s="11"/>
       <c r="C797" s="10"/>
@@ -21945,7 +21962,7 @@
       <c r="AV797" s="10"/>
       <c r="AW797" s="10"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A798" s="11"/>
       <c r="B798" s="11"/>
       <c r="C798" s="10"/>
@@ -21971,7 +21988,7 @@
       <c r="AV798" s="10"/>
       <c r="AW798" s="10"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A799" s="11"/>
       <c r="B799" s="11"/>
       <c r="C799" s="10"/>
@@ -21997,7 +22014,7 @@
       <c r="AV799" s="10"/>
       <c r="AW799" s="10"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A800" s="11"/>
       <c r="B800" s="11"/>
       <c r="C800" s="10"/>
@@ -22023,7 +22040,7 @@
       <c r="AV800" s="10"/>
       <c r="AW800" s="10"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A801" s="11"/>
       <c r="B801" s="11"/>
       <c r="C801" s="10"/>
@@ -22049,7 +22066,7 @@
       <c r="AV801" s="10"/>
       <c r="AW801" s="10"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A802" s="11"/>
       <c r="B802" s="11"/>
       <c r="C802" s="10"/>
@@ -22075,7 +22092,7 @@
       <c r="AV802" s="10"/>
       <c r="AW802" s="10"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A803" s="11"/>
       <c r="B803" s="11"/>
       <c r="C803" s="10"/>
@@ -22101,7 +22118,7 @@
       <c r="AV803" s="10"/>
       <c r="AW803" s="10"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A804" s="11"/>
       <c r="B804" s="11"/>
       <c r="C804" s="10"/>
@@ -22127,7 +22144,7 @@
       <c r="AV804" s="10"/>
       <c r="AW804" s="10"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A805" s="11"/>
       <c r="B805" s="11"/>
       <c r="C805" s="10"/>
@@ -22153,7 +22170,7 @@
       <c r="AV805" s="10"/>
       <c r="AW805" s="10"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A806" s="11"/>
       <c r="B806" s="11"/>
       <c r="C806" s="10"/>
@@ -22179,7 +22196,7 @@
       <c r="AV806" s="10"/>
       <c r="AW806" s="10"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A807" s="11"/>
       <c r="B807" s="11"/>
       <c r="C807" s="10"/>
@@ -22205,7 +22222,7 @@
       <c r="AV807" s="10"/>
       <c r="AW807" s="10"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A808" s="11"/>
       <c r="B808" s="11"/>
       <c r="C808" s="10"/>
@@ -22231,7 +22248,7 @@
       <c r="AV808" s="10"/>
       <c r="AW808" s="10"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A809" s="11"/>
       <c r="B809" s="11"/>
       <c r="C809" s="10"/>
@@ -22257,7 +22274,7 @@
       <c r="AV809" s="10"/>
       <c r="AW809" s="10"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A810" s="11"/>
       <c r="B810" s="11"/>
       <c r="C810" s="10"/>
@@ -22283,7 +22300,7 @@
       <c r="AV810" s="10"/>
       <c r="AW810" s="10"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A811" s="11"/>
       <c r="B811" s="11"/>
       <c r="C811" s="10"/>
@@ -22309,7 +22326,7 @@
       <c r="AV811" s="10"/>
       <c r="AW811" s="10"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A812" s="11"/>
       <c r="B812" s="11"/>
       <c r="C812" s="10"/>
@@ -22335,7 +22352,7 @@
       <c r="AV812" s="10"/>
       <c r="AW812" s="10"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A813" s="11"/>
       <c r="B813" s="11"/>
       <c r="C813" s="10"/>
@@ -22361,7 +22378,7 @@
       <c r="AV813" s="10"/>
       <c r="AW813" s="10"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A814" s="11"/>
       <c r="B814" s="11"/>
       <c r="C814" s="10"/>
@@ -22387,7 +22404,7 @@
       <c r="AV814" s="10"/>
       <c r="AW814" s="10"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A815" s="11"/>
       <c r="B815" s="11"/>
       <c r="C815" s="10"/>
@@ -22413,7 +22430,7 @@
       <c r="AV815" s="10"/>
       <c r="AW815" s="10"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A816" s="11"/>
       <c r="B816" s="11"/>
       <c r="C816" s="10"/>
@@ -22439,7 +22456,7 @@
       <c r="AV816" s="10"/>
       <c r="AW816" s="10"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A817" s="11"/>
       <c r="B817" s="11"/>
       <c r="C817" s="10"/>
@@ -22465,7 +22482,7 @@
       <c r="AV817" s="10"/>
       <c r="AW817" s="10"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A818" s="11"/>
       <c r="B818" s="11"/>
       <c r="C818" s="10"/>
@@ -22491,7 +22508,7 @@
       <c r="AV818" s="10"/>
       <c r="AW818" s="10"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A819" s="11"/>
       <c r="B819" s="11"/>
       <c r="C819" s="10"/>
@@ -22517,7 +22534,7 @@
       <c r="AV819" s="10"/>
       <c r="AW819" s="10"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A820" s="11"/>
       <c r="B820" s="11"/>
       <c r="C820" s="10"/>
@@ -22543,7 +22560,7 @@
       <c r="AV820" s="10"/>
       <c r="AW820" s="10"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A821" s="11"/>
       <c r="B821" s="11"/>
       <c r="C821" s="10"/>
@@ -22569,7 +22586,7 @@
       <c r="AV821" s="10"/>
       <c r="AW821" s="10"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A822" s="11"/>
       <c r="B822" s="11"/>
       <c r="C822" s="10"/>
@@ -22595,7 +22612,7 @@
       <c r="AV822" s="10"/>
       <c r="AW822" s="10"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A823" s="11"/>
       <c r="B823" s="11"/>
       <c r="C823" s="10"/>
@@ -22621,7 +22638,7 @@
       <c r="AV823" s="10"/>
       <c r="AW823" s="10"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A824" s="11"/>
       <c r="B824" s="11"/>
       <c r="C824" s="10"/>
@@ -22647,7 +22664,7 @@
       <c r="AV824" s="10"/>
       <c r="AW824" s="10"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A825" s="11"/>
       <c r="B825" s="11"/>
       <c r="C825" s="10"/>
@@ -22673,7 +22690,7 @@
       <c r="AV825" s="10"/>
       <c r="AW825" s="10"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A826" s="11"/>
       <c r="B826" s="11"/>
       <c r="C826" s="10"/>
@@ -22699,7 +22716,7 @@
       <c r="AV826" s="10"/>
       <c r="AW826" s="10"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A827" s="11"/>
       <c r="B827" s="11"/>
       <c r="C827" s="10"/>
@@ -22725,7 +22742,7 @@
       <c r="AV827" s="10"/>
       <c r="AW827" s="10"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A828" s="11"/>
       <c r="B828" s="11"/>
       <c r="C828" s="10"/>
@@ -22751,7 +22768,7 @@
       <c r="AV828" s="10"/>
       <c r="AW828" s="10"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A829" s="11"/>
       <c r="B829" s="11"/>
       <c r="C829" s="10"/>
@@ -22777,7 +22794,7 @@
       <c r="AV829" s="10"/>
       <c r="AW829" s="10"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A830" s="11"/>
       <c r="B830" s="11"/>
       <c r="C830" s="10"/>
@@ -22803,7 +22820,7 @@
       <c r="AV830" s="10"/>
       <c r="AW830" s="10"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A831" s="11"/>
       <c r="B831" s="11"/>
       <c r="C831" s="10"/>
@@ -22829,7 +22846,7 @@
       <c r="AV831" s="10"/>
       <c r="AW831" s="10"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A832" s="11"/>
       <c r="B832" s="11"/>
       <c r="C832" s="10"/>
@@ -22855,7 +22872,7 @@
       <c r="AV832" s="10"/>
       <c r="AW832" s="10"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A833" s="11"/>
       <c r="B833" s="11"/>
       <c r="C833" s="10"/>
@@ -22881,7 +22898,7 @@
       <c r="AV833" s="10"/>
       <c r="AW833" s="10"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A834" s="11"/>
       <c r="B834" s="11"/>
       <c r="C834" s="10"/>
@@ -22907,7 +22924,7 @@
       <c r="AV834" s="10"/>
       <c r="AW834" s="10"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A835" s="11"/>
       <c r="B835" s="11"/>
       <c r="C835" s="10"/>
@@ -22933,7 +22950,7 @@
       <c r="AV835" s="10"/>
       <c r="AW835" s="10"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A836" s="11"/>
       <c r="B836" s="11"/>
       <c r="C836" s="10"/>
@@ -22959,7 +22976,7 @@
       <c r="AV836" s="10"/>
       <c r="AW836" s="10"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A837" s="11"/>
       <c r="B837" s="11"/>
       <c r="C837" s="10"/>
@@ -22985,7 +23002,7 @@
       <c r="AV837" s="10"/>
       <c r="AW837" s="10"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A838" s="11"/>
       <c r="B838" s="11"/>
       <c r="C838" s="10"/>
@@ -23011,7 +23028,7 @@
       <c r="AV838" s="10"/>
       <c r="AW838" s="10"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A839" s="11"/>
       <c r="B839" s="11"/>
       <c r="C839" s="10"/>
@@ -23037,7 +23054,7 @@
       <c r="AV839" s="10"/>
       <c r="AW839" s="10"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A840" s="11"/>
       <c r="B840" s="11"/>
       <c r="C840" s="10"/>
@@ -23063,7 +23080,7 @@
       <c r="AV840" s="10"/>
       <c r="AW840" s="10"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A841" s="11"/>
       <c r="B841" s="11"/>
       <c r="C841" s="10"/>
@@ -23089,7 +23106,7 @@
       <c r="AV841" s="10"/>
       <c r="AW841" s="10"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A842" s="11"/>
       <c r="B842" s="11"/>
       <c r="C842" s="10"/>
@@ -23115,7 +23132,7 @@
       <c r="AV842" s="10"/>
       <c r="AW842" s="10"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A843" s="11"/>
       <c r="B843" s="11"/>
       <c r="C843" s="10"/>
@@ -23141,7 +23158,7 @@
       <c r="AV843" s="10"/>
       <c r="AW843" s="10"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A844" s="11"/>
       <c r="B844" s="11"/>
       <c r="C844" s="10"/>
@@ -23167,7 +23184,7 @@
       <c r="AV844" s="10"/>
       <c r="AW844" s="10"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A845" s="11"/>
       <c r="B845" s="11"/>
       <c r="C845" s="10"/>
@@ -23193,7 +23210,7 @@
       <c r="AV845" s="10"/>
       <c r="AW845" s="10"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A846" s="11"/>
       <c r="B846" s="11"/>
       <c r="C846" s="10"/>
@@ -23219,7 +23236,7 @@
       <c r="AV846" s="10"/>
       <c r="AW846" s="10"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A847" s="11"/>
       <c r="B847" s="11"/>
       <c r="C847" s="10"/>
@@ -23245,7 +23262,7 @@
       <c r="AV847" s="10"/>
       <c r="AW847" s="10"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A848" s="11"/>
       <c r="B848" s="11"/>
       <c r="C848" s="10"/>
@@ -23271,7 +23288,7 @@
       <c r="AV848" s="10"/>
       <c r="AW848" s="10"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A849" s="11"/>
       <c r="B849" s="11"/>
       <c r="C849" s="10"/>
@@ -23297,7 +23314,7 @@
       <c r="AV849" s="10"/>
       <c r="AW849" s="10"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A850" s="11"/>
       <c r="B850" s="11"/>
       <c r="C850" s="10"/>
@@ -23323,7 +23340,7 @@
       <c r="AV850" s="10"/>
       <c r="AW850" s="10"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A851" s="11"/>
       <c r="B851" s="11"/>
       <c r="C851" s="10"/>
@@ -23349,7 +23366,7 @@
       <c r="AV851" s="10"/>
       <c r="AW851" s="10"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A852" s="11"/>
       <c r="B852" s="11"/>
       <c r="C852" s="10"/>
@@ -23375,7 +23392,7 @@
       <c r="AV852" s="10"/>
       <c r="AW852" s="10"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A853" s="11"/>
       <c r="B853" s="11"/>
       <c r="C853" s="10"/>
@@ -23401,7 +23418,7 @@
       <c r="AV853" s="10"/>
       <c r="AW853" s="10"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A854" s="11"/>
       <c r="B854" s="11"/>
       <c r="C854" s="10"/>
@@ -23427,7 +23444,7 @@
       <c r="AV854" s="10"/>
       <c r="AW854" s="10"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A855" s="11"/>
       <c r="B855" s="11"/>
       <c r="C855" s="10"/>
@@ -23453,7 +23470,7 @@
       <c r="AV855" s="10"/>
       <c r="AW855" s="10"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A856" s="11"/>
       <c r="B856" s="11"/>
       <c r="C856" s="10"/>
@@ -23479,7 +23496,7 @@
       <c r="AV856" s="10"/>
       <c r="AW856" s="10"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A857" s="11"/>
       <c r="B857" s="11"/>
       <c r="C857" s="10"/>
@@ -23505,7 +23522,7 @@
       <c r="AV857" s="10"/>
       <c r="AW857" s="10"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A858" s="11"/>
       <c r="B858" s="11"/>
       <c r="C858" s="10"/>
@@ -23531,7 +23548,7 @@
       <c r="AV858" s="10"/>
       <c r="AW858" s="10"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A859" s="11"/>
       <c r="B859" s="11"/>
       <c r="C859" s="10"/>
@@ -23557,7 +23574,7 @@
       <c r="AV859" s="10"/>
       <c r="AW859" s="10"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A860" s="11"/>
       <c r="B860" s="11"/>
       <c r="C860" s="10"/>
@@ -23583,7 +23600,7 @@
       <c r="AV860" s="10"/>
       <c r="AW860" s="10"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A861" s="11"/>
       <c r="B861" s="11"/>
       <c r="C861" s="10"/>
@@ -23609,7 +23626,7 @@
       <c r="AV861" s="10"/>
       <c r="AW861" s="10"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A862" s="11"/>
       <c r="B862" s="11"/>
       <c r="C862" s="10"/>
@@ -23635,7 +23652,7 @@
       <c r="AV862" s="10"/>
       <c r="AW862" s="10"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A863" s="11"/>
       <c r="B863" s="11"/>
       <c r="C863" s="10"/>
@@ -23661,7 +23678,7 @@
       <c r="AV863" s="10"/>
       <c r="AW863" s="10"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A864" s="11"/>
       <c r="B864" s="11"/>
       <c r="C864" s="10"/>
@@ -23687,7 +23704,7 @@
       <c r="AV864" s="10"/>
       <c r="AW864" s="10"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A865" s="11"/>
       <c r="B865" s="11"/>
       <c r="C865" s="10"/>
@@ -23713,7 +23730,7 @@
       <c r="AV865" s="10"/>
       <c r="AW865" s="10"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A866" s="11"/>
       <c r="B866" s="11"/>
       <c r="C866" s="10"/>
@@ -23739,7 +23756,7 @@
       <c r="AV866" s="10"/>
       <c r="AW866" s="10"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A867" s="11"/>
       <c r="B867" s="11"/>
       <c r="C867" s="10"/>
@@ -23765,7 +23782,7 @@
       <c r="AV867" s="10"/>
       <c r="AW867" s="10"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A868" s="11"/>
       <c r="B868" s="11"/>
       <c r="C868" s="10"/>
@@ -23791,7 +23808,7 @@
       <c r="AV868" s="10"/>
       <c r="AW868" s="10"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A869" s="11"/>
       <c r="B869" s="11"/>
       <c r="C869" s="10"/>
@@ -23817,7 +23834,7 @@
       <c r="AV869" s="10"/>
       <c r="AW869" s="10"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A870" s="11"/>
       <c r="B870" s="11"/>
       <c r="C870" s="10"/>
@@ -23843,7 +23860,7 @@
       <c r="AV870" s="10"/>
       <c r="AW870" s="10"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A871" s="11"/>
       <c r="B871" s="11"/>
       <c r="C871" s="10"/>
@@ -23869,7 +23886,7 @@
       <c r="AV871" s="10"/>
       <c r="AW871" s="10"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A872" s="11"/>
       <c r="B872" s="11"/>
       <c r="C872" s="10"/>
@@ -23895,7 +23912,7 @@
       <c r="AV872" s="10"/>
       <c r="AW872" s="10"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A873" s="11"/>
       <c r="B873" s="11"/>
       <c r="C873" s="10"/>
@@ -23921,7 +23938,7 @@
       <c r="AV873" s="10"/>
       <c r="AW873" s="10"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A874" s="11"/>
       <c r="B874" s="11"/>
       <c r="C874" s="10"/>
@@ -23947,7 +23964,7 @@
       <c r="AV874" s="10"/>
       <c r="AW874" s="10"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A875" s="11"/>
       <c r="B875" s="11"/>
       <c r="C875" s="10"/>
@@ -23973,7 +23990,7 @@
       <c r="AV875" s="10"/>
       <c r="AW875" s="10"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A876" s="11"/>
       <c r="B876" s="11"/>
       <c r="C876" s="10"/>
@@ -23999,7 +24016,7 @@
       <c r="AV876" s="10"/>
       <c r="AW876" s="10"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A877" s="11"/>
       <c r="B877" s="11"/>
       <c r="C877" s="10"/>
@@ -24025,7 +24042,7 @@
       <c r="AV877" s="10"/>
       <c r="AW877" s="10"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A878" s="11"/>
       <c r="B878" s="11"/>
       <c r="C878" s="10"/>
@@ -24051,7 +24068,7 @@
       <c r="AV878" s="10"/>
       <c r="AW878" s="10"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A879" s="11"/>
       <c r="B879" s="11"/>
       <c r="C879" s="10"/>
@@ -24077,7 +24094,7 @@
       <c r="AV879" s="10"/>
       <c r="AW879" s="10"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A880" s="11"/>
       <c r="B880" s="11"/>
       <c r="C880" s="10"/>
@@ -24103,7 +24120,7 @@
       <c r="AV880" s="10"/>
       <c r="AW880" s="10"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A881" s="11"/>
       <c r="B881" s="11"/>
       <c r="C881" s="10"/>
@@ -24129,7 +24146,7 @@
       <c r="AV881" s="10"/>
       <c r="AW881" s="10"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A882" s="11"/>
       <c r="B882" s="11"/>
       <c r="C882" s="10"/>
@@ -24155,7 +24172,7 @@
       <c r="AV882" s="10"/>
       <c r="AW882" s="10"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A883" s="11"/>
       <c r="B883" s="11"/>
       <c r="C883" s="10"/>
@@ -24181,7 +24198,7 @@
       <c r="AV883" s="10"/>
       <c r="AW883" s="10"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A884" s="11"/>
       <c r="B884" s="11"/>
       <c r="C884" s="10"/>
@@ -24207,7 +24224,7 @@
       <c r="AV884" s="10"/>
       <c r="AW884" s="10"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A885" s="11"/>
       <c r="B885" s="11"/>
       <c r="C885" s="10"/>
@@ -24233,7 +24250,7 @@
       <c r="AV885" s="10"/>
       <c r="AW885" s="10"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A886" s="11"/>
       <c r="B886" s="11"/>
       <c r="C886" s="10"/>
@@ -24259,7 +24276,7 @@
       <c r="AV886" s="10"/>
       <c r="AW886" s="10"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A887" s="11"/>
       <c r="B887" s="11"/>
       <c r="C887" s="10"/>
@@ -24285,7 +24302,7 @@
       <c r="AV887" s="10"/>
       <c r="AW887" s="10"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A888" s="11"/>
       <c r="B888" s="11"/>
       <c r="C888" s="10"/>
@@ -24311,7 +24328,7 @@
       <c r="AV888" s="10"/>
       <c r="AW888" s="10"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A889" s="11"/>
       <c r="B889" s="11"/>
       <c r="C889" s="10"/>
@@ -24337,7 +24354,7 @@
       <c r="AV889" s="10"/>
       <c r="AW889" s="10"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A890" s="11"/>
       <c r="B890" s="11"/>
       <c r="C890" s="10"/>
@@ -24363,7 +24380,7 @@
       <c r="AV890" s="10"/>
       <c r="AW890" s="10"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A891" s="11"/>
       <c r="B891" s="11"/>
       <c r="C891" s="10"/>
@@ -24389,7 +24406,7 @@
       <c r="AV891" s="10"/>
       <c r="AW891" s="10"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A892" s="11"/>
       <c r="B892" s="11"/>
       <c r="C892" s="10"/>
@@ -24415,7 +24432,7 @@
       <c r="AV892" s="10"/>
       <c r="AW892" s="10"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A893" s="11"/>
       <c r="B893" s="11"/>
       <c r="C893" s="10"/>
@@ -24441,7 +24458,7 @@
       <c r="AV893" s="10"/>
       <c r="AW893" s="10"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A894" s="11"/>
       <c r="B894" s="11"/>
       <c r="C894" s="10"/>
@@ -24467,7 +24484,7 @@
       <c r="AV894" s="10"/>
       <c r="AW894" s="10"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A895" s="11"/>
       <c r="B895" s="11"/>
       <c r="C895" s="10"/>
@@ -24493,7 +24510,7 @@
       <c r="AV895" s="10"/>
       <c r="AW895" s="10"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A896" s="11"/>
       <c r="B896" s="11"/>
       <c r="C896" s="10"/>
@@ -24519,7 +24536,7 @@
       <c r="AV896" s="10"/>
       <c r="AW896" s="10"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A897" s="11"/>
       <c r="B897" s="11"/>
       <c r="C897" s="10"/>
@@ -24545,7 +24562,7 @@
       <c r="AV897" s="10"/>
       <c r="AW897" s="10"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A898" s="11"/>
       <c r="B898" s="11"/>
       <c r="C898" s="10"/>
@@ -24571,7 +24588,7 @@
       <c r="AV898" s="10"/>
       <c r="AW898" s="10"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A899" s="11"/>
       <c r="B899" s="11"/>
       <c r="C899" s="10"/>
@@ -24597,7 +24614,7 @@
       <c r="AV899" s="10"/>
       <c r="AW899" s="10"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A900" s="11"/>
       <c r="B900" s="11"/>
       <c r="C900" s="10"/>
@@ -24623,7 +24640,7 @@
       <c r="AV900" s="10"/>
       <c r="AW900" s="10"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A901" s="11"/>
       <c r="B901" s="11"/>
       <c r="C901" s="10"/>
@@ -24649,7 +24666,7 @@
       <c r="AV901" s="10"/>
       <c r="AW901" s="10"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A902" s="11"/>
       <c r="B902" s="11"/>
       <c r="C902" s="10"/>
@@ -24675,7 +24692,7 @@
       <c r="AV902" s="10"/>
       <c r="AW902" s="10"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A903" s="11"/>
       <c r="B903" s="11"/>
       <c r="C903" s="10"/>
@@ -24701,7 +24718,7 @@
       <c r="AV903" s="10"/>
       <c r="AW903" s="10"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A904" s="11"/>
       <c r="B904" s="11"/>
       <c r="C904" s="10"/>
@@ -24727,7 +24744,7 @@
       <c r="AV904" s="10"/>
       <c r="AW904" s="10"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A905" s="11"/>
       <c r="B905" s="11"/>
       <c r="C905" s="10"/>
@@ -24753,7 +24770,7 @@
       <c r="AV905" s="10"/>
       <c r="AW905" s="10"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A906" s="11"/>
       <c r="B906" s="11"/>
       <c r="C906" s="10"/>
@@ -24779,7 +24796,7 @@
       <c r="AV906" s="10"/>
       <c r="AW906" s="10"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A907" s="11"/>
       <c r="B907" s="11"/>
       <c r="C907" s="10"/>
@@ -24805,7 +24822,7 @@
       <c r="AV907" s="10"/>
       <c r="AW907" s="10"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A908" s="11"/>
       <c r="B908" s="11"/>
       <c r="C908" s="10"/>
@@ -24831,7 +24848,7 @@
       <c r="AV908" s="10"/>
       <c r="AW908" s="10"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A909" s="11"/>
       <c r="B909" s="11"/>
       <c r="C909" s="10"/>
@@ -24857,7 +24874,7 @@
       <c r="AV909" s="10"/>
       <c r="AW909" s="10"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A910" s="11"/>
       <c r="B910" s="11"/>
       <c r="C910" s="10"/>
@@ -24883,7 +24900,7 @@
       <c r="AV910" s="10"/>
       <c r="AW910" s="10"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A911" s="11"/>
       <c r="B911" s="11"/>
       <c r="C911" s="10"/>
@@ -24909,7 +24926,7 @@
       <c r="AV911" s="10"/>
       <c r="AW911" s="10"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A912" s="11"/>
       <c r="B912" s="11"/>
       <c r="C912" s="10"/>
@@ -24935,7 +24952,7 @@
       <c r="AV912" s="10"/>
       <c r="AW912" s="10"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A913" s="11"/>
       <c r="B913" s="11"/>
       <c r="C913" s="10"/>
@@ -24961,7 +24978,7 @@
       <c r="AV913" s="10"/>
       <c r="AW913" s="10"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A914" s="11"/>
       <c r="B914" s="11"/>
       <c r="C914" s="10"/>
@@ -24987,7 +25004,7 @@
       <c r="AV914" s="10"/>
       <c r="AW914" s="10"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A915" s="11"/>
       <c r="B915" s="11"/>
       <c r="C915" s="10"/>
@@ -25013,7 +25030,7 @@
       <c r="AV915" s="10"/>
       <c r="AW915" s="10"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A916" s="11"/>
       <c r="B916" s="11"/>
       <c r="C916" s="10"/>
@@ -25039,7 +25056,7 @@
       <c r="AV916" s="10"/>
       <c r="AW916" s="10"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A917" s="11"/>
       <c r="B917" s="11"/>
       <c r="C917" s="10"/>
@@ -25065,7 +25082,7 @@
       <c r="AV917" s="10"/>
       <c r="AW917" s="10"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A918" s="11"/>
       <c r="B918" s="11"/>
       <c r="C918" s="10"/>
@@ -25091,7 +25108,7 @@
       <c r="AV918" s="10"/>
       <c r="AW918" s="10"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A919" s="11"/>
       <c r="B919" s="11"/>
       <c r="C919" s="10"/>
@@ -25117,7 +25134,7 @@
       <c r="AV919" s="10"/>
       <c r="AW919" s="10"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A920" s="11"/>
       <c r="B920" s="11"/>
       <c r="C920" s="10"/>
@@ -25143,7 +25160,7 @@
       <c r="AV920" s="10"/>
       <c r="AW920" s="10"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A921" s="11"/>
       <c r="B921" s="11"/>
       <c r="C921" s="10"/>
@@ -25169,7 +25186,7 @@
       <c r="AV921" s="10"/>
       <c r="AW921" s="10"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A922" s="11"/>
       <c r="B922" s="11"/>
       <c r="C922" s="10"/>
@@ -25195,7 +25212,7 @@
       <c r="AV922" s="10"/>
       <c r="AW922" s="10"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A923" s="11"/>
       <c r="B923" s="11"/>
       <c r="C923" s="10"/>
@@ -25221,7 +25238,7 @@
       <c r="AV923" s="10"/>
       <c r="AW923" s="10"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A924" s="11"/>
       <c r="B924" s="11"/>
       <c r="C924" s="10"/>
@@ -25247,7 +25264,7 @@
       <c r="AV924" s="10"/>
       <c r="AW924" s="10"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A925" s="11"/>
       <c r="B925" s="11"/>
       <c r="C925" s="10"/>
@@ -25273,7 +25290,7 @@
       <c r="AV925" s="10"/>
       <c r="AW925" s="10"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A926" s="11"/>
       <c r="B926" s="11"/>
       <c r="C926" s="10"/>
@@ -25299,7 +25316,7 @@
       <c r="AV926" s="10"/>
       <c r="AW926" s="10"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A927" s="11"/>
       <c r="B927" s="11"/>
       <c r="C927" s="10"/>
@@ -25325,7 +25342,7 @@
       <c r="AV927" s="10"/>
       <c r="AW927" s="10"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A928" s="11"/>
       <c r="B928" s="11"/>
       <c r="C928" s="10"/>
@@ -25351,7 +25368,7 @@
       <c r="AV928" s="10"/>
       <c r="AW928" s="10"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A929" s="11"/>
       <c r="B929" s="11"/>
       <c r="C929" s="10"/>
@@ -25377,7 +25394,7 @@
       <c r="AV929" s="10"/>
       <c r="AW929" s="10"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A930" s="11"/>
       <c r="B930" s="11"/>
       <c r="C930" s="10"/>
@@ -25403,7 +25420,7 @@
       <c r="AV930" s="10"/>
       <c r="AW930" s="10"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A931" s="11"/>
       <c r="B931" s="11"/>
       <c r="C931" s="10"/>
@@ -25429,7 +25446,7 @@
       <c r="AV931" s="10"/>
       <c r="AW931" s="10"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A932" s="11"/>
       <c r="B932" s="11"/>
       <c r="C932" s="10"/>
@@ -25455,7 +25472,7 @@
       <c r="AV932" s="10"/>
       <c r="AW932" s="10"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A933" s="11"/>
       <c r="B933" s="11"/>
       <c r="C933" s="10"/>
@@ -25481,7 +25498,7 @@
       <c r="AV933" s="10"/>
       <c r="AW933" s="10"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A934" s="11"/>
       <c r="B934" s="11"/>
       <c r="C934" s="10"/>
@@ -25507,7 +25524,7 @@
       <c r="AV934" s="10"/>
       <c r="AW934" s="10"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A935" s="11"/>
       <c r="B935" s="11"/>
       <c r="C935" s="10"/>
@@ -25533,7 +25550,7 @@
       <c r="AV935" s="10"/>
       <c r="AW935" s="10"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A936" s="11"/>
       <c r="B936" s="11"/>
       <c r="C936" s="10"/>
@@ -25559,7 +25576,7 @@
       <c r="AV936" s="10"/>
       <c r="AW936" s="10"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A937" s="11"/>
       <c r="B937" s="11"/>
       <c r="C937" s="10"/>
@@ -25585,7 +25602,7 @@
       <c r="AV937" s="10"/>
       <c r="AW937" s="10"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A938" s="11"/>
       <c r="B938" s="11"/>
       <c r="C938" s="10"/>
@@ -25611,7 +25628,7 @@
       <c r="AV938" s="10"/>
       <c r="AW938" s="10"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A939" s="11"/>
       <c r="B939" s="11"/>
       <c r="C939" s="10"/>
@@ -25637,7 +25654,7 @@
       <c r="AV939" s="10"/>
       <c r="AW939" s="10"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A940" s="11"/>
       <c r="B940" s="11"/>
       <c r="C940" s="10"/>
@@ -25663,7 +25680,7 @@
       <c r="AV940" s="10"/>
       <c r="AW940" s="10"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A941" s="11"/>
       <c r="B941" s="11"/>
       <c r="C941" s="10"/>
@@ -25689,7 +25706,7 @@
       <c r="AV941" s="10"/>
       <c r="AW941" s="10"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A942" s="11"/>
       <c r="B942" s="11"/>
       <c r="C942" s="10"/>
@@ -25715,7 +25732,7 @@
       <c r="AV942" s="10"/>
       <c r="AW942" s="10"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A943" s="11"/>
       <c r="B943" s="11"/>
       <c r="C943" s="10"/>
@@ -25741,7 +25758,7 @@
       <c r="AV943" s="10"/>
       <c r="AW943" s="10"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A944" s="11"/>
       <c r="B944" s="11"/>
       <c r="C944" s="10"/>
@@ -25767,7 +25784,7 @@
       <c r="AV944" s="10"/>
       <c r="AW944" s="10"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A945" s="11"/>
       <c r="B945" s="11"/>
       <c r="C945" s="10"/>
@@ -25793,7 +25810,7 @@
       <c r="AV945" s="10"/>
       <c r="AW945" s="10"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A946" s="11"/>
       <c r="B946" s="11"/>
       <c r="C946" s="10"/>
@@ -25819,7 +25836,7 @@
       <c r="AV946" s="10"/>
       <c r="AW946" s="10"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A947" s="11"/>
       <c r="B947" s="11"/>
       <c r="C947" s="10"/>
@@ -25845,7 +25862,7 @@
       <c r="AV947" s="10"/>
       <c r="AW947" s="10"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A948" s="11"/>
       <c r="B948" s="11"/>
       <c r="C948" s="10"/>
@@ -25871,7 +25888,7 @@
       <c r="AV948" s="10"/>
       <c r="AW948" s="10"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A949" s="11"/>
       <c r="B949" s="11"/>
       <c r="C949" s="10"/>
@@ -25897,7 +25914,7 @@
       <c r="AV949" s="10"/>
       <c r="AW949" s="10"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A950" s="11"/>
       <c r="B950" s="11"/>
       <c r="C950" s="10"/>
@@ -25923,7 +25940,7 @@
       <c r="AV950" s="10"/>
       <c r="AW950" s="10"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A951" s="11"/>
       <c r="B951" s="11"/>
       <c r="C951" s="10"/>
@@ -25949,7 +25966,7 @@
       <c r="AV951" s="10"/>
       <c r="AW951" s="10"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A952" s="11"/>
       <c r="B952" s="11"/>
       <c r="C952" s="10"/>
@@ -25975,7 +25992,7 @@
       <c r="AV952" s="10"/>
       <c r="AW952" s="10"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A953" s="11"/>
       <c r="B953" s="11"/>
       <c r="C953" s="10"/>
@@ -26001,7 +26018,7 @@
       <c r="AV953" s="10"/>
       <c r="AW953" s="10"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A954" s="11"/>
       <c r="B954" s="11"/>
       <c r="C954" s="10"/>
@@ -26027,7 +26044,7 @@
       <c r="AV954" s="10"/>
       <c r="AW954" s="10"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A955" s="11"/>
       <c r="B955" s="11"/>
       <c r="C955" s="10"/>
@@ -26053,7 +26070,7 @@
       <c r="AV955" s="10"/>
       <c r="AW955" s="10"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A956" s="11"/>
       <c r="B956" s="11"/>
       <c r="C956" s="10"/>
@@ -26079,7 +26096,7 @@
       <c r="AV956" s="10"/>
       <c r="AW956" s="10"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A957" s="11"/>
       <c r="B957" s="11"/>
       <c r="C957" s="10"/>
@@ -26105,7 +26122,7 @@
       <c r="AV957" s="10"/>
       <c r="AW957" s="10"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A958" s="11"/>
       <c r="B958" s="11"/>
       <c r="C958" s="10"/>
@@ -26131,7 +26148,7 @@
       <c r="AV958" s="10"/>
       <c r="AW958" s="10"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A959" s="11"/>
       <c r="B959" s="11"/>
       <c r="C959" s="10"/>
@@ -26157,7 +26174,7 @@
       <c r="AV959" s="10"/>
       <c r="AW959" s="10"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A960" s="11"/>
       <c r="B960" s="11"/>
       <c r="C960" s="10"/>
@@ -26183,7 +26200,7 @@
       <c r="AV960" s="10"/>
       <c r="AW960" s="10"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A961" s="11"/>
       <c r="B961" s="11"/>
       <c r="C961" s="10"/>
@@ -26209,7 +26226,7 @@
       <c r="AV961" s="10"/>
       <c r="AW961" s="10"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A962" s="11"/>
       <c r="B962" s="11"/>
       <c r="C962" s="10"/>
@@ -26235,7 +26252,7 @@
       <c r="AV962" s="10"/>
       <c r="AW962" s="10"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A963" s="11"/>
       <c r="B963" s="11"/>
       <c r="C963" s="10"/>
@@ -26261,7 +26278,7 @@
       <c r="AV963" s="10"/>
       <c r="AW963" s="10"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A964" s="11"/>
       <c r="B964" s="11"/>
       <c r="C964" s="10"/>
@@ -26287,7 +26304,7 @@
       <c r="AV964" s="10"/>
       <c r="AW964" s="10"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A965" s="11"/>
       <c r="B965" s="11"/>
       <c r="C965" s="10"/>
@@ -26313,7 +26330,7 @@
       <c r="AV965" s="10"/>
       <c r="AW965" s="10"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A966" s="11"/>
       <c r="B966" s="11"/>
       <c r="C966" s="10"/>
@@ -26339,7 +26356,7 @@
       <c r="AV966" s="10"/>
       <c r="AW966" s="10"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A967" s="11"/>
       <c r="B967" s="11"/>
       <c r="C967" s="10"/>
@@ -26365,7 +26382,7 @@
       <c r="AV967" s="10"/>
       <c r="AW967" s="10"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A968" s="11"/>
       <c r="B968" s="11"/>
       <c r="C968" s="10"/>
@@ -26391,7 +26408,7 @@
       <c r="AV968" s="10"/>
       <c r="AW968" s="10"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A969" s="11"/>
       <c r="B969" s="11"/>
       <c r="C969" s="10"/>
@@ -26417,7 +26434,7 @@
       <c r="AV969" s="10"/>
       <c r="AW969" s="10"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A970" s="11"/>
       <c r="B970" s="11"/>
       <c r="C970" s="10"/>
@@ -26443,7 +26460,7 @@
       <c r="AV970" s="10"/>
       <c r="AW970" s="10"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A971" s="11"/>
       <c r="B971" s="11"/>
       <c r="C971" s="10"/>
@@ -26469,7 +26486,7 @@
       <c r="AV971" s="10"/>
       <c r="AW971" s="10"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A972" s="11"/>
       <c r="B972" s="11"/>
       <c r="C972" s="10"/>
@@ -26495,7 +26512,7 @@
       <c r="AV972" s="10"/>
       <c r="AW972" s="10"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A973" s="11"/>
       <c r="B973" s="11"/>
       <c r="C973" s="10"/>
@@ -26521,7 +26538,7 @@
       <c r="AV973" s="10"/>
       <c r="AW973" s="10"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A974" s="11"/>
       <c r="B974" s="11"/>
       <c r="C974" s="10"/>
@@ -26547,7 +26564,7 @@
       <c r="AV974" s="10"/>
       <c r="AW974" s="10"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A975" s="11"/>
       <c r="B975" s="11"/>
       <c r="C975" s="10"/>
@@ -26573,7 +26590,7 @@
       <c r="AV975" s="10"/>
       <c r="AW975" s="10"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A976" s="11"/>
       <c r="B976" s="11"/>
       <c r="C976" s="10"/>
@@ -26599,7 +26616,7 @@
       <c r="AV976" s="10"/>
       <c r="AW976" s="10"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A977" s="11"/>
       <c r="B977" s="11"/>
       <c r="C977" s="10"/>
@@ -26625,7 +26642,7 @@
       <c r="AV977" s="10"/>
       <c r="AW977" s="10"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A978" s="11"/>
       <c r="B978" s="11"/>
       <c r="C978" s="10"/>
@@ -26651,7 +26668,7 @@
       <c r="AV978" s="10"/>
       <c r="AW978" s="10"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A979" s="11"/>
       <c r="B979" s="11"/>
       <c r="C979" s="10"/>
@@ -26677,7 +26694,7 @@
       <c r="AV979" s="10"/>
       <c r="AW979" s="10"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A980" s="11"/>
       <c r="B980" s="11"/>
       <c r="C980" s="10"/>
@@ -26703,7 +26720,7 @@
       <c r="AV980" s="10"/>
       <c r="AW980" s="10"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A981" s="11"/>
       <c r="B981" s="11"/>
       <c r="C981" s="10"/>
@@ -26729,7 +26746,7 @@
       <c r="AV981" s="10"/>
       <c r="AW981" s="10"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A982" s="11"/>
       <c r="B982" s="11"/>
       <c r="C982" s="10"/>
@@ -26755,7 +26772,7 @@
       <c r="AV982" s="10"/>
       <c r="AW982" s="10"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A983" s="11"/>
       <c r="B983" s="11"/>
       <c r="C983" s="10"/>
@@ -26781,7 +26798,7 @@
       <c r="AV983" s="10"/>
       <c r="AW983" s="10"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A984" s="11"/>
       <c r="B984" s="11"/>
       <c r="C984" s="10"/>
@@ -26807,7 +26824,7 @@
       <c r="AV984" s="10"/>
       <c r="AW984" s="10"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A985" s="11"/>
       <c r="B985" s="11"/>
       <c r="C985" s="10"/>
@@ -26833,7 +26850,7 @@
       <c r="AV985" s="10"/>
       <c r="AW985" s="10"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A986" s="11"/>
       <c r="B986" s="11"/>
       <c r="C986" s="10"/>
@@ -26859,7 +26876,7 @@
       <c r="AV986" s="10"/>
       <c r="AW986" s="10"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A987" s="11"/>
       <c r="B987" s="11"/>
       <c r="C987" s="10"/>
@@ -26885,7 +26902,7 @@
       <c r="AV987" s="10"/>
       <c r="AW987" s="10"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A988" s="11"/>
       <c r="B988" s="11"/>
       <c r="C988" s="10"/>
@@ -26911,7 +26928,7 @@
       <c r="AV988" s="10"/>
       <c r="AW988" s="10"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A989" s="11"/>
       <c r="B989" s="11"/>
       <c r="C989" s="10"/>
@@ -26937,7 +26954,7 @@
       <c r="AV989" s="10"/>
       <c r="AW989" s="10"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A990" s="11"/>
       <c r="B990" s="11"/>
       <c r="C990" s="10"/>
@@ -26963,7 +26980,7 @@
       <c r="AV990" s="10"/>
       <c r="AW990" s="10"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A991" s="11"/>
       <c r="B991" s="11"/>
       <c r="C991" s="10"/>
@@ -26989,7 +27006,7 @@
       <c r="AV991" s="10"/>
       <c r="AW991" s="10"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A992" s="11"/>
       <c r="B992" s="11"/>
       <c r="C992" s="10"/>
@@ -27015,7 +27032,7 @@
       <c r="AV992" s="10"/>
       <c r="AW992" s="10"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A993" s="11"/>
       <c r="B993" s="11"/>
       <c r="C993" s="10"/>
@@ -27041,7 +27058,7 @@
       <c r="AV993" s="10"/>
       <c r="AW993" s="10"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A994" s="11"/>
       <c r="B994" s="11"/>
       <c r="C994" s="10"/>
@@ -27067,7 +27084,7 @@
       <c r="AV994" s="10"/>
       <c r="AW994" s="10"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A995" s="11"/>
       <c r="B995" s="11"/>
       <c r="C995" s="10"/>
@@ -27093,7 +27110,7 @@
       <c r="AV995" s="10"/>
       <c r="AW995" s="10"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A996" s="11"/>
       <c r="B996" s="11"/>
       <c r="C996" s="10"/>
@@ -27119,7 +27136,7 @@
       <c r="AV996" s="10"/>
       <c r="AW996" s="10"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A997" s="11"/>
       <c r="B997" s="11"/>
       <c r="C997" s="10"/>
@@ -27145,7 +27162,7 @@
       <c r="AV997" s="10"/>
       <c r="AW997" s="10"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A998" s="11"/>
       <c r="B998" s="11"/>
       <c r="C998" s="10"/>
@@ -27171,7 +27188,7 @@
       <c r="AV998" s="10"/>
       <c r="AW998" s="10"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A999" s="11"/>
       <c r="B999" s="11"/>
       <c r="C999" s="10"/>
@@ -27197,7 +27214,7 @@
       <c r="AV999" s="10"/>
       <c r="AW999" s="10"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A1000" s="11"/>
       <c r="B1000" s="11"/>
       <c r="C1000" s="10"/>
@@ -27223,7 +27240,7 @@
       <c r="AV1000" s="10"/>
       <c r="AW1000" s="10"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A1001" s="11"/>
       <c r="B1001" s="11"/>
       <c r="C1001" s="10"/>
@@ -27274,7 +27291,7 @@
       <c r="AV1001" s="10"/>
       <c r="AW1001" s="10"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="1:49" ht="13" x14ac:dyDescent="0.3">
       <c r="A1002" s="11"/>
       <c r="B1002" s="11"/>
       <c r="C1002" s="10"/>
@@ -27326,21 +27343,23 @@
       <c r="AW1002" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27420,7 +27439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
@@ -27452,7 +27471,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -27532,7 +27551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>101</v>
       </c>
@@ -27612,7 +27631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>112</v>
       </c>
@@ -27693,21 +27712,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27787,7 +27807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
@@ -27819,7 +27839,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>65</v>
       </c>
@@ -27899,7 +27919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>101</v>
       </c>
@@ -27979,7 +27999,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>112</v>
       </c>
@@ -28060,6 +28080,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>